--- a/scripts/SMET/datasets/smet_enriched_mapped_cves.xlsx
+++ b/scripts/SMET/datasets/smet_enriched_mapped_cves.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Selected_Techniques</t>
+          <t>filtered_selected_techniques</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Masquerading', 'User Execution']</t>
+          <t>Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Obfuscated Files or Information']</t>
+          <t>Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Modify Authentication Process', 'User Execution', 'Create Account']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; Modify Authentication Process; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'Process Injection', 'Exploit Public-Facing Application', 'User Execution', 'Browser Session Hijacking']</t>
+          <t>Server Software Component; Process Injection; Exploit Public-Facing Application; User Execution; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation of Remote Services; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'User Execution', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Server Software Component; User Execution; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Weaken Encryption', 'Exploitation for Client Execution', 'Encrypted Channel', 'Unsecured Credentials', 'Obfuscated Files or Information', 'Data Encrypted for Impact', 'User Execution', 'Peripheral Device Discovery', 'Exploit Public-Facing Application']</t>
+          <t>Weaken Encryption; Exploitation for Client Execution; Encrypted Channel; Unsecured Credentials; Obfuscated Files or Information; Data Encrypted for Impact; User Execution; Peripheral Device Discovery; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Impair Defenses', 'Data Manipulation', 'Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Impair Defenses; Data Manipulation; Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['Unsecured Credentials', 'OS Credential Dumping', 'Modify Authentication Process', 'Valid Accounts', 'User Execution', 'Credentials from Password Stores']</t>
+          <t>Unsecured Credentials; OS Credential Dumping; Modify Authentication Process; Valid Accounts; User Execution; Credentials from Password Stores</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Stage Capabilities', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Endpoint Denial of Service; Exploit Public-Facing Application; Exploitation for Client Execution; Stage Capabilities; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Exploit Public-Facing Application', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Application Layer Protocol; Exploit Public-Facing Application; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Pre-OS Boot', 'Modify System Image', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Pre-OS Boot; Modify System Image; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Virtualization/Sandbox Evasion', 'Modify System Image', 'User Execution', 'Pre-OS Boot', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Virtualization/Sandbox Evasion; Modify System Image; User Execution; Pre-OS Boot; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'User Execution', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Abuse Elevation Control Mechanism; User Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Masquerading', 'Modify Cloud Compute Infrastructure', 'User Execution', 'Obfuscated Files or Information']</t>
+          <t>Indicator Removal; Masquerading; Modify Cloud Compute Infrastructure; User Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Process Injection; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['Remote Services', 'Exploitation of Remote Services', 'Exploitation for Client Execution', 'Application Layer Protocol', 'User Execution']</t>
+          <t>Remote Services; Exploitation of Remote Services; Exploitation for Client Execution; Application Layer Protocol; User Execution</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Stage Capabilities', 'Obtain Capabilities', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; Stage Capabilities; Obtain Capabilities; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['Data Manipulation', 'Remote Service Session Hijacking', 'Access Token Manipulation', 'Input Capture', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Data Manipulation; Remote Service Session Hijacking; Access Token Manipulation; Input Capture; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'System Network Connections Discovery', 'System Network Configuration Discovery', 'User Execution']</t>
+          <t>Exploitation of Remote Services; System Network Connections Discovery; System Network Configuration Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Impair Defenses', 'User Execution', 'Valid Accounts', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Impair Defenses; User Execution; Valid Accounts; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'Ingress Tool Transfer', 'Modify Authentication Process', 'Obfuscated Files or Information', 'Stage Capabilities']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; Ingress Tool Transfer; Modify Authentication Process; Obfuscated Files or Information; Stage Capabilities</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['Resource Hijacking', 'Endpoint Denial of Service', 'User Execution', 'Non-Application Layer Protocol', 'Traffic Signaling']</t>
+          <t>Resource Hijacking; Endpoint Denial of Service; User Execution; Non-Application Layer Protocol; Traffic Signaling</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Server Software Component', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Server Software Component; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Stage Capabilities', 'Drive-by Compromise', 'Server Software Component', 'User Execution', 'Exploitation for Privilege Escalation', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Stage Capabilities; Drive-by Compromise; Server Software Component; User Execution; Exploitation for Privilege Escalation; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Process Injection', 'Exploit Public-Facing Application', 'User Execution', 'Browser Session Hijacking']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Process Injection; Exploit Public-Facing Application; User Execution; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Impair Defenses', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Impair Defenses; User Execution</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'User Execution', 'Lateral Tool Transfer', 'Exploitation of Remote Services']</t>
+          <t>Ingress Tool Transfer; User Execution; Lateral Tool Transfer; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Command and Scripting Interpreter', 'Valid Accounts', 'Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Software Discovery', 'User Execution', 'Indirect Command Execution', 'Pre-OS Boot']</t>
+          <t>Abuse Elevation Control Mechanism; Command and Scripting Interpreter; Valid Accounts; Exploitation for Privilege Escalation; Exploitation for Client Execution; Exploit Public-Facing Application; Software Discovery; User Execution; Indirect Command Execution; Pre-OS Boot</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'User Execution']</t>
+          <t>Obfuscated Files or Information; User Execution</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['User Execution', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'Modify Registry', 'Pre-OS Boot', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Abuse Elevation Control Mechanism; Exploitation for Client Execution; Exploitation for Privilege Escalation; Modify Registry; Pre-OS Boot; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'BITS Jobs', 'User Execution']</t>
+          <t>Subvert Trust Controls; BITS Jobs; User Execution</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['Weaken Encryption', 'Peripheral Device Discovery', 'Brute Force', 'User Execution', 'Data from Configuration Repository', 'Encrypted Channel']</t>
+          <t>Weaken Encryption; Peripheral Device Discovery; Brute Force; User Execution; Data from Configuration Repository; Encrypted Channel</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Non-Application Layer Protocol', 'Modify Authentication Process', 'Application Layer Protocol', 'Exploitation of Remote Services']</t>
+          <t>Use Alternate Authentication Material; Exploitation for Client Execution; Non-Application Layer Protocol; Modify Authentication Process; Application Layer Protocol; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Protocol Tunneling', 'System Shutdown/Reboot', 'Exploitation for Client Execution', 'Network Denial of Service', 'User Execution', 'Pre-OS Boot', 'Service Stop', 'Encrypted Channel', 'Impair Defenses', 'Peripheral Device Discovery', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Protocol Tunneling; System Shutdown/Reboot; Exploitation for Client Execution; Network Denial of Service; User Execution; Pre-OS Boot; Service Stop; Encrypted Channel; Impair Defenses; Peripheral Device Discovery; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['Drive-by Compromise', 'Obtain Capabilities', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Drive-by Compromise; Obtain Capabilities; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'Brute Force', 'Compromise Accounts', 'Valid Accounts', 'User Execution', 'Create Account']</t>
+          <t>Modify Authentication Process; Brute Force; Compromise Accounts; Valid Accounts; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['Screen Capture', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Screen Capture; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Modify Authentication Process', 'Use Alternate Authentication Material']</t>
+          <t>Exploitation for Client Execution; Modify Authentication Process; Use Alternate Authentication Material</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Subvert Trust Controls']</t>
+          <t>Exploitation for Client Execution; User Execution; Subvert Trust Controls</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'User Execution', 'Server Software Component']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; User Execution; Server Software Component</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['Account Access Removal', 'Create Account', 'Credentials from Password Stores', 'Brute Force', 'OS Credential Dumping', 'Modify Authentication Process', 'Account Manipulation', 'User Execution', 'Unsecured Credentials']</t>
+          <t>Account Access Removal; Create Account; Credentials from Password Stores; Brute Force; OS Credential Dumping; Modify Authentication Process; Account Manipulation; User Execution; Unsecured Credentials</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Valid Accounts', 'Exploitation for Privilege Escalation', 'User Execution', 'Pre-OS Boot', 'Indirect Command Execution', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Abuse Elevation Control Mechanism; Exploitation for Client Execution; Valid Accounts; Exploitation for Privilege Escalation; User Execution; Pre-OS Boot; Indirect Command Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Privilege Escalation', 'Browser Session Hijacking']</t>
+          <t>User Execution; Exploitation for Privilege Escalation; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Browser Session Hijacking', 'Exploit Public-Facing Application', 'Browser Bookmark Discovery', 'Event Triggered Execution', 'Exploitation of Remote Services', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Browser Session Hijacking; Exploit Public-Facing Application; Browser Bookmark Discovery; Event Triggered Execution; Exploitation of Remote Services; Web Service</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Data Manipulation', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Data Manipulation; User Execution</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Pre-OS Boot', 'Network Boundary Bridging', 'Adversary-in-the-Middle', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Pre-OS Boot; Network Boundary Bridging; Adversary-in-the-Middle; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'Data Staged', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation for Client Execution']</t>
+          <t>Server Software Component; Data Staged; User Execution; Exploit Public-Facing Application; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Command and Scripting Interpreter', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Privilege Escalation; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Command and Scripting Interpreter; User Execution; Exploit Public-Facing Application; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Command and Scripting Interpreter', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Command and Scripting Interpreter; User Execution</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Template Injection; Use Alternate Authentication Material; Exploitation of Remote Services; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Valid Accounts', 'Exploit Public-Facing Application', 'Hide Artifacts', 'Browser Session Hijacking', 'Browser Bookmark Discovery', 'User Execution', 'Exploitation for Privilege Escalation', 'Web Service', 'Event Triggered Execution']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Valid Accounts; Exploit Public-Facing Application; Hide Artifacts; Browser Session Hijacking; Browser Bookmark Discovery; User Execution; Exploitation for Privilege Escalation; Web Service; Event Triggered Execution</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Impair Defenses', 'Modify Authentication Process', 'Network Denial of Service', 'Modify System Image']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Impair Defenses; Modify Authentication Process; Network Denial of Service; Modify System Image</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Exploitation of Remote Services; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Pre-OS Boot', 'Use Alternate Authentication Material', 'User Execution', 'Modify Authentication Process', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'Rootkit']</t>
+          <t>Exploitation for Client Execution; Pre-OS Boot; Use Alternate Authentication Material; User Execution; Modify Authentication Process; Exploit Public-Facing Application; Exploitation of Remote Services; Rootkit</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Dynamic Resolution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Dynamic Resolution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution', 'Server Software Component']</t>
+          <t>Exploit Public-Facing Application; User Execution; Server Software Component</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['Brute Force', 'Use Alternate Authentication Material', 'Valid Accounts', 'Modify Authentication Process', 'Abuse Elevation Control Mechanism', 'Input Capture']</t>
+          <t>Brute Force; Use Alternate Authentication Material; Valid Accounts; Modify Authentication Process; Abuse Elevation Control Mechanism; Input Capture</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Domain Policy Modification', 'User Execution', 'Develop Capabilities']</t>
+          <t>Subvert Trust Controls; Domain Policy Modification; User Execution; Develop Capabilities</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['Resource Hijacking', 'Endpoint Denial of Service', 'User Execution', 'Weaken Encryption']</t>
+          <t>Resource Hijacking; Endpoint Denial of Service; User Execution; Weaken Encryption</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Hijack Execution Flow', 'User Execution', 'Process Injection']</t>
+          <t>Exploitation for Client Execution; Hijack Execution Flow; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Command and Scripting Interpreter', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Command and Scripting Interpreter; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Discovery', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; File and Directory Discovery; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Exploitation of Remote Services', 'Modify Authentication Process']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Exploitation for Client Execution; Exploitation of Remote Services; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Email Collection', 'Impair Defenses', 'Data Encoding', 'User Execution', 'Obfuscated Files or Information', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Email Collection; Impair Defenses; Data Encoding; User Execution; Obfuscated Files or Information; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Template Injection', 'Obtain Capabilities', 'Phishing', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Template Injection; Obtain Capabilities; Phishing; User Execution</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Network Denial of Service', 'Resource Hijacking', 'Dynamic Resolution', 'System Shutdown/Reboot', 'Application Layer Protocol', 'User Execution', 'Exploit Public-Facing Application', 'Pre-OS Boot', 'Event Triggered Execution', 'Adversary-in-the-Middle']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Network Denial of Service; Resource Hijacking; Dynamic Resolution; System Shutdown/Reboot; Application Layer Protocol; User Execution; Exploit Public-Facing Application; Pre-OS Boot; Event Triggered Execution; Adversary-in-the-Middle</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Application Layer Protocol', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Ingress Tool Transfer; Application Layer Protocol; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Access Token Manipulation', 'Impair Defenses', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Access Token Manipulation; Impair Defenses; User Execution</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Software Discovery', 'User Execution', 'Exploitation for Privilege Escalation', 'Hijack Execution Flow']</t>
+          <t>Exploitation for Client Execution; Software Discovery; User Execution; Exploitation for Privilege Escalation; Hijack Execution Flow</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['Browser Session Hijacking', 'Data Manipulation', 'Input Capture', 'Stage Capabilities', 'User Execution']</t>
+          <t>Browser Session Hijacking; Data Manipulation; Input Capture; Stage Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Archive Collected Data', 'Data Encoding', 'Encrypted Channel', 'User Execution', 'Data Manipulation']</t>
+          <t>Obfuscated Files or Information; Archive Collected Data; Data Encoding; Encrypted Channel; User Execution; Data Manipulation</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['Pre-OS Boot', 'Modify Authentication Process', 'Modify System Image', 'User Execution', 'Create Account']</t>
+          <t>Pre-OS Boot; Modify Authentication Process; Modify System Image; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['Modify Registry', 'Exploitation of Remote Services', 'Impair Defenses', 'User Execution']</t>
+          <t>Modify Registry; Exploitation of Remote Services; Impair Defenses; User Execution</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Obtain Capabilities', 'Adversary-in-the-Middle', 'Exploit Public-Facing Application', 'Proxy', 'Virtualization/Sandbox Evasion', 'User Execution', 'Valid Accounts']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Obtain Capabilities; Adversary-in-the-Middle; Exploit Public-Facing Application; Proxy; Virtualization/Sandbox Evasion; User Execution; Valid Accounts</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Data Staged', 'Data Destruction', 'User Execution']</t>
+          <t>Indicator Removal; Data Staged; Data Destruction; User Execution</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Access Token Manipulation', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Access Token Manipulation; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Input Capture', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Input Capture; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['Modify System Image', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Exploitation for Privilege Escalation', 'Modify Authentication Process', 'Process Injection']</t>
+          <t>Modify System Image; Use Alternate Authentication Material; Obtain Capabilities; Exploitation for Privilege Escalation; Modify Authentication Process; Process Injection</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['Data from Local System', 'User Execution', 'Automated Collection']</t>
+          <t>Data from Local System; User Execution; Automated Collection</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'User Execution']</t>
+          <t>Access Token Manipulation; User Execution</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Resource Hijacking', 'Network Denial of Service', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Resource Hijacking; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Process Injection', 'User Execution', 'Modify System Image', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Process Injection; User Execution; Modify System Image; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Browser Session Hijacking', 'User Execution', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Browser Session Hijacking; User Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Exploitation of Remote Services', 'Modify Authentication Process', 'Masquerading']</t>
+          <t>File and Directory Discovery; Use Alternate Authentication Material; Exploitation for Client Execution; Exploitation of Remote Services; Modify Authentication Process; Masquerading</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Privilege Escalation; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'User Execution', 'Valid Accounts', 'Obfuscated Files or Information']</t>
+          <t>Hijack Execution Flow; User Execution; Valid Accounts; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['Process Injection', 'Native API', 'User Execution']</t>
+          <t>Process Injection; Native API; User Execution</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['Remote Services', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Remote Services; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'File and Directory Discovery', 'Dynamic Resolution', 'User Execution']</t>
+          <t>Application Layer Protocol; File and Directory Discovery; Dynamic Resolution; User Execution</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['Process Injection', 'User Execution']</t>
+          <t>Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Command and Scripting Interpreter', 'System Service Discovery', 'Exploit Public-Facing Application', 'Create or Modify System Process', 'Modify Authentication Process', 'Exploitation of Remote Services', 'Adversary-in-the-Middle']</t>
+          <t>Use Alternate Authentication Material; Command and Scripting Interpreter; System Service Discovery; Exploit Public-Facing Application; Create or Modify System Process; Modify Authentication Process; Exploitation of Remote Services; Adversary-in-the-Middle</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'User Execution', 'Create Account']</t>
+          <t>Modify Authentication Process; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Ingress Tool Transfer', 'Exploit Public-Facing Application', 'User Execution', 'Lateral Tool Transfer', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Ingress Tool Transfer; Exploit Public-Facing Application; User Execution; Lateral Tool Transfer; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['Email Collection', 'Exploitation for Client Execution', 'User Execution', 'Phishing']</t>
+          <t>Email Collection; Exploitation for Client Execution; User Execution; Phishing</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Exploit Public-Facing Application', 'Stage Capabilities', 'Network Denial of Service', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Exploit Public-Facing Application; Stage Capabilities; Network Denial of Service; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Obfuscated Files or Information']</t>
+          <t>Endpoint Denial of Service; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Exploitation for Client Execution; Modify Authentication Process; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['Steal or Forge Kerberos Tickets', 'Virtualization/Sandbox Evasion', 'Application Layer Protocol', 'User Execution', 'Impair Defenses']</t>
+          <t>Steal or Forge Kerberos Tickets; Virtualization/Sandbox Evasion; Application Layer Protocol; User Execution; Impair Defenses</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'User Execution', 'Modify Authentication Process']</t>
+          <t>Access Token Manipulation; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; User Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['Obtain Capabilities', 'User Execution']</t>
+          <t>Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Browser Session Hijacking', 'Phishing', 'Exploitation for Privilege Escalation', 'Exploitation of Remote Services', 'Event Triggered Execution']</t>
+          <t>User Execution; Exploitation for Client Execution; Exploit Public-Facing Application; Browser Session Hijacking; Phishing; Exploitation for Privilege Escalation; Exploitation of Remote Services; Event Triggered Execution</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Exploit Public-Facing Application']</t>
+          <t>Modify Authentication Process; Use Alternate Authentication Material; Exploitation for Client Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Impair Defenses', 'Native API', 'Process Injection', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Impair Defenses; Native API; Process Injection; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Hide Artifacts', 'Data from Local System', 'File and Directory Permissions Modification', 'User Execution', 'Data Staged']</t>
+          <t>File and Directory Discovery; Hide Artifacts; Data from Local System; File and Directory Permissions Modification; User Execution; Data Staged</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Process Injection', 'Traffic Signaling', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Process Injection; Traffic Signaling; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['Virtualization/Sandbox Evasion', 'User Execution', 'Impair Defenses', 'Obfuscated Files or Information']</t>
+          <t>Virtualization/Sandbox Evasion; User Execution; Impair Defenses; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['Create Account', 'Remote Service Session Hijacking', 'Application Layer Protocol', 'Exploitation for Client Execution', 'Access Token Manipulation', 'External Remote Services', 'Exploit Public-Facing Application', 'User Execution', 'Peripheral Device Discovery']</t>
+          <t>Create Account; Remote Service Session Hijacking; Application Layer Protocol; Exploitation for Client Execution; Access Token Manipulation; External Remote Services; Exploit Public-Facing Application; User Execution; Peripheral Device Discovery</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['User Execution', 'Brute Force', 'Modify Authentication Process', 'Valid Accounts']</t>
+          <t>User Execution; Brute Force; Modify Authentication Process; Valid Accounts</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['Resource Hijacking', 'Impair Defenses', 'Endpoint Denial of Service', 'User Execution', 'Virtualization/Sandbox Evasion']</t>
+          <t>Resource Hijacking; Impair Defenses; Endpoint Denial of Service; User Execution; Virtualization/Sandbox Evasion</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['Template Injection', 'Exploitation for Client Execution', 'Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Template Injection; Exploitation for Client Execution; Endpoint Denial of Service; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'User Execution', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Server Software Component; User Execution; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Pre-OS Boot', 'Modify System Image', 'System Binary Proxy Execution', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Pre-OS Boot; Modify System Image; System Binary Proxy Execution; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['Pre-OS Boot', 'Exploitation for Privilege Escalation', 'User Execution', 'Subvert Trust Controls', 'Exploit Public-Facing Application', 'Exploitation for Client Execution']</t>
+          <t>Pre-OS Boot; Exploitation for Privilege Escalation; User Execution; Subvert Trust Controls; Exploit Public-Facing Application; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>File and Directory Permissions Modification; Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['Process Injection', 'Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Process Injection; Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Exploitation for Client Execution', 'Data from Local System']</t>
+          <t>Ingress Tool Transfer; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Exploitation for Client Execution; Data from Local System</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Resource Hijacking', 'Network Denial of Service', 'Impair Defenses', 'Pre-OS Boot', 'Non-Application Layer Protocol', 'Traffic Signaling', 'Adversary-in-the-Middle', 'User Execution', 'Network Sniffing', 'Application Layer Protocol', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Resource Hijacking; Network Denial of Service; Impair Defenses; Pre-OS Boot; Non-Application Layer Protocol; Traffic Signaling; Adversary-in-the-Middle; User Execution; Network Sniffing; Application Layer Protocol; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Exploit Public-Facing Application; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Template Injection; Use Alternate Authentication Material; Exploitation of Remote Services; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'User Execution', 'Exploitation for Client Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Hijack Execution Flow; User Execution; Exploitation for Client Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['System Services', 'System Service Discovery', 'Create or Modify System Process', 'User Execution']</t>
+          <t>System Services; System Service Discovery; Create or Modify System Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['Weaken Encryption', 'User Execution']</t>
+          <t>Weaken Encryption; User Execution</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Software Discovery', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Software Discovery; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'Data from Local System', 'File and Directory Discovery', 'Template Injection', 'Masquerading', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; Data from Local System; File and Directory Discovery; Template Injection; Masquerading; User Execution; Exploit Public-Facing Application; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Server Software Component', 'Exploitation for Client Execution', 'Stage Capabilities', 'Modify Authentication Process']</t>
+          <t>Exploit Public-Facing Application; Use Alternate Authentication Material; Server Software Component; Exploitation for Client Execution; Stage Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'Exploitation for Client Execution', 'Shared Modules', 'User Execution']</t>
+          <t>Hijack Execution Flow; Exploitation for Client Execution; Shared Modules; User Execution</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['System Time Discovery', 'Brute Force', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'User Execution']</t>
+          <t>System Time Discovery; Brute Force; Use Alternate Authentication Material; Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['Create Account', 'System Shutdown/Reboot', 'Use Alternate Authentication Material', 'Impair Defenses', 'Account Access Removal', 'Modify Authentication Process', 'Endpoint Denial of Service', 'Modify System Image']</t>
+          <t>Create Account; System Shutdown/Reboot; Use Alternate Authentication Material; Impair Defenses; Account Access Removal; Modify Authentication Process; Endpoint Denial of Service; Modify System Image</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Discovery', 'Exploit Public-Facing Application', 'Masquerading', 'User Execution', 'Hijack Execution Flow', 'Stage Capabilities', 'Browser Session Hijacking']</t>
+          <t>Exploitation for Client Execution; File and Directory Discovery; Exploit Public-Facing Application; Masquerading; User Execution; Hijack Execution Flow; Stage Capabilities; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Browser Session Hijacking', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Browser Session Hijacking; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Server Software Component', 'Exploitation for Client Execution', 'Valid Accounts', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Server Software Component; Exploitation for Client Execution; Valid Accounts; User Execution</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Office Application Startup', 'Modify Authentication Process', 'Template Injection']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Office Application Startup; Modify Authentication Process; Template Injection</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Template Injection', 'Modify Authentication Process', 'User Execution', 'Obfuscated Files or Information']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Template Injection; Modify Authentication Process; User Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Supply Chain Compromise', 'Obtain Capabilities', 'Software Discovery', 'Exploitation of Remote Services', 'Audio Capture', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Exploitation for Client Execution; Supply Chain Compromise; Obtain Capabilities; Software Discovery; Exploitation of Remote Services; Audio Capture; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['Create Account', 'User Execution']</t>
+          <t>Create Account; User Execution</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Application Layer Protocol', 'Obtain Capabilities', 'Indirect Command Execution', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Application Layer Protocol; Obtain Capabilities; Indirect Command Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['Input Capture', 'Modify Authentication Process', 'User Execution', 'Create Account', 'Exploitation of Remote Services', 'Remote Services']</t>
+          <t>Input Capture; Modify Authentication Process; User Execution; Create Account; Exploitation of Remote Services; Remote Services</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Obtain Capabilities', 'Process Injection', 'Virtualization/Sandbox Evasion', 'User Execution', 'Obfuscated Files or Information']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Exploitation for Client Execution; Obtain Capabilities; Process Injection; Virtualization/Sandbox Evasion; User Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Peripheral Device Discovery', 'Dynamic Resolution', 'User Execution', 'Exploitation of Remote Services', 'Exploitation for Client Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Peripheral Device Discovery; Dynamic Resolution; User Execution; Exploitation of Remote Services; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'Modify Authentication Process', 'Use Alternate Authentication Material', 'User Execution', 'Account Access Removal']</t>
+          <t>Remote Service Session Hijacking; Modify Authentication Process; Use Alternate Authentication Material; User Execution; Account Access Removal</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'Modify System Image', 'User Execution', 'Create Account', 'Use Alternate Authentication Material', 'Multi-Factor Authentication Interception']</t>
+          <t>Modify Authentication Process; Modify System Image; User Execution; Create Account; Use Alternate Authentication Material; Multi-Factor Authentication Interception</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation of Remote Services', 'Remote Services']</t>
+          <t>User Execution; Exploitation of Remote Services; Remote Services</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'Command and Scripting Interpreter', 'Valid Accounts', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution', 'Indirect Command Execution', 'Exploitation for Privilege Escalation', 'Pre-OS Boot']</t>
+          <t>Impair Defenses; Command and Scripting Interpreter; Valid Accounts; Exploitation for Client Execution; Exploit Public-Facing Application; User Execution; Indirect Command Execution; Exploitation for Privilege Escalation; Pre-OS Boot</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Exploitation for Client Execution', 'Server Software Component', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Modify System Image', 'Supply Chain Compromise', 'Exploit Public-Facing Application', 'Obtain Capabilities', 'User Execution', 'Software Discovery', 'Web Service']</t>
+          <t>Application Layer Protocol; Exploitation for Client Execution; Server Software Component; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Modify System Image; Supply Chain Compromise; Exploit Public-Facing Application; Obtain Capabilities; User Execution; Software Discovery; Web Service</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Steal Application Access Token', 'Stage Capabilities', 'Input Capture', 'Browser Session Hijacking', 'Dynamic Resolution', 'User Execution', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Steal Application Access Token; Stage Capabilities; Input Capture; Browser Session Hijacking; Dynamic Resolution; User Execution; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Exploitation for Client Execution', 'Data Destruction', 'Hijack Execution Flow', 'Modify Cloud Compute Infrastructure', 'Hide Artifacts', 'User Execution', 'Virtualization/Sandbox Evasion', 'Masquerading', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Indicator Removal; Exploitation for Client Execution; Data Destruction; Hijack Execution Flow; Modify Cloud Compute Infrastructure; Hide Artifacts; User Execution; Virtualization/Sandbox Evasion; Masquerading; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Adversary-in-the-Middle', 'User Execution', 'Browser Extensions', 'Network Denial of Service']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Adversary-in-the-Middle; User Execution; Browser Extensions; Network Denial of Service</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Ingress Tool Transfer', 'Stage Capabilities', 'Cloud Service Dashboard', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Exploitation for Client Execution; Ingress Tool Transfer; Stage Capabilities; Cloud Service Dashboard; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['Phishing for Information', 'User Execution', 'Impair Defenses', 'Use Alternate Authentication Material']</t>
+          <t>Phishing for Information; User Execution; Impair Defenses; Use Alternate Authentication Material</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Valid Accounts', 'Abuse Elevation Control Mechanism', 'Account Manipulation', 'User Execution', 'Create Account']</t>
+          <t>Exploitation for Privilege Escalation; Valid Accounts; Abuse Elevation Control Mechanism; Account Manipulation; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Exploitation of Remote Services; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Create Account', 'Abuse Elevation Control Mechanism', 'File and Directory Permissions Modification', 'Establish Accounts', 'Event Triggered Execution', 'Exploit Public-Facing Application', 'User Execution', 'Exploitation of Remote Services', 'Exploitation for Privilege Escalation', 'Command and Scripting Interpreter', 'Masquerading']</t>
+          <t>Exploitation for Client Execution; Create Account; Abuse Elevation Control Mechanism; File and Directory Permissions Modification; Establish Accounts; Event Triggered Execution; Exploit Public-Facing Application; User Execution; Exploitation of Remote Services; Exploitation for Privilege Escalation; Command and Scripting Interpreter; Masquerading</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Adversary-in-the-Middle', 'User Execution']</t>
+          <t>Network Sniffing; Adversary-in-the-Middle; User Execution</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Obtain Capabilities', 'Modify Authentication Process', 'User Execution', 'Brute Force', 'Data from Information Repositories', 'Valid Accounts']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Obtain Capabilities; Modify Authentication Process; User Execution; Brute Force; Data from Information Repositories; Valid Accounts</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Hijack Execution Flow', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Hijack Execution Flow; User Execution</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Ingress Tool Transfer', 'Exploitation for Privilege Escalation', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Client Execution; Ingress Tool Transfer; Exploitation for Privilege Escalation; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Process Injection']</t>
+          <t>Endpoint Denial of Service; Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['System Owner/User Discovery', 'User Execution', 'Exploitation for Client Execution', 'Create Account', 'Exploit Public-Facing Application', 'Abuse Elevation Control Mechanism', 'Drive-by Compromise', 'Exploitation of Remote Services', 'Stage Capabilities', 'Phishing', 'Server Software Component', 'Obtain Capabilities', 'Compromise Infrastructure', 'Establish Accounts', 'Event Triggered Execution', 'Command and Scripting Interpreter', 'Browser Session Hijacking']</t>
+          <t>System Owner/User Discovery; User Execution; Exploitation for Client Execution; Create Account; Exploit Public-Facing Application; Abuse Elevation Control Mechanism; Drive-by Compromise; Exploitation of Remote Services; Stage Capabilities; Phishing; Server Software Component; Obtain Capabilities; Compromise Infrastructure; Establish Accounts; Event Triggered Execution; Command and Scripting Interpreter; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Valid Accounts', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'User Execution', 'Indirect Command Execution', 'Exploitation for Privilege Escalation', 'Pre-OS Boot', 'Modify System Image']</t>
+          <t>Command and Scripting Interpreter; Valid Accounts; Exploitation for Client Execution; Exploit Public-Facing Application; Exploitation of Remote Services; User Execution; Indirect Command Execution; Exploitation for Privilege Escalation; Pre-OS Boot; Modify System Image</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Forge Web Credentials', 'Modify Authentication Process']</t>
+          <t>Deobfuscate/Decode Files or Information; Use Alternate Authentication Material; Obtain Capabilities; Forge Web Credentials; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Command and Scripting Interpreter', 'Multi-Factor Authentication Interception', 'User Execution', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Command and Scripting Interpreter; Multi-Factor Authentication Interception; User Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Application Layer Protocol', 'Network Denial of Service', 'Proxy', 'Subvert Trust Controls', 'User Execution', 'Obtain Capabilities', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Application Layer Protocol; Network Denial of Service; Proxy; Subvert Trust Controls; User Execution; Obtain Capabilities; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'User Execution', 'Process Injection']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Application Layer Protocol', 'Browser Session Hijacking', 'Data Obfuscation', 'Browser Bookmark Discovery', 'Data Encoding', 'Event Triggered Execution', 'User Execution', 'Exploitation of Remote Services', 'Web Service']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Application Layer Protocol; Browser Session Hijacking; Data Obfuscation; Browser Bookmark Discovery; Data Encoding; Event Triggered Execution; User Execution; Exploitation of Remote Services; Web Service</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Exploit Public-Facing Application', 'User Execution', 'Proxy']</t>
+          <t>Application Layer Protocol; Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Exploit Public-Facing Application; User Execution; Proxy</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution']</t>
+          <t>User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Proxy', 'Data Obfuscation', 'User Execution', 'Data Manipulation', 'Adversary-in-the-Middle']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Proxy; Data Obfuscation; User Execution; Data Manipulation; Adversary-in-the-Middle</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Ingress Tool Transfer; Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Stage Capabilities', 'Exploit Public-Facing Application', 'Server Software Component', 'Exploitation of Remote Services', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Stage Capabilities; Exploit Public-Facing Application; Server Software Component; Exploitation of Remote Services; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Masquerading', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['Remote Services', 'Exploitation of Remote Services', 'Exploitation for Client Execution', 'User Execution', 'Command and Scripting Interpreter', 'System Binary Proxy Execution']</t>
+          <t>Remote Services; Exploitation of Remote Services; Exploitation for Client Execution; User Execution; Command and Scripting Interpreter; System Binary Proxy Execution</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Stage Capabilities', 'Server Software Component', 'Exploit Public-Facing Application', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; Stage Capabilities; Server Software Component; Exploit Public-Facing Application; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'User Execution', 'Modify Authentication Process']</t>
+          <t>Abuse Elevation Control Mechanism; User Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Virtualization/Sandbox Evasion', 'Exploitation for Privilege Escalation', 'Phishing', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; Virtualization/Sandbox Evasion; Exploitation for Privilege Escalation; Phishing; User Execution</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Exploitation for Client Execution', 'Stage Capabilities', 'Server Software Component', 'User Execution', 'Data from Local System', 'Drive-by Compromise']</t>
+          <t>File and Directory Discovery; Exploitation for Client Execution; Stage Capabilities; Server Software Component; User Execution; Data from Local System; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Masquerading', 'Exploitation for Client Execution', 'Ingress Tool Transfer', 'User Execution', 'Web Service', 'Exploitation for Privilege Escalation']</t>
+          <t>File and Directory Discovery; Masquerading; Exploitation for Client Execution; Ingress Tool Transfer; User Execution; Web Service; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Privilege Escalation; Exploitation for Client Execution; Abuse Elevation Control Mechanism; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Exploitation for Client Execution', 'Data Destruction', 'Exploit Public-Facing Application', 'User Execution', 'Phishing for Information', 'Disk Wipe']</t>
+          <t>Indicator Removal; Exploitation for Client Execution; Data Destruction; Exploit Public-Facing Application; User Execution; Phishing for Information; Disk Wipe</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Application Layer Protocol', 'User Execution', 'Stage Capabilities', 'Input Capture', 'Browser Session Hijacking', 'Drive-by Compromise', 'Phishing']</t>
+          <t>Exploit Public-Facing Application; Application Layer Protocol; User Execution; Stage Capabilities; Input Capture; Browser Session Hijacking; Drive-by Compromise; Phishing</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Ingress Tool Transfer', 'Data Manipulation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Pre-OS Boot', 'Peripheral Device Discovery', 'Web Service', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Ingress Tool Transfer; Data Manipulation; Abuse Elevation Control Mechanism; User Execution; Pre-OS Boot; Peripheral Device Discovery; Web Service; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Browser Session Hijacking', 'Browser Bookmark Discovery', 'Command and Scripting Interpreter', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Browser Session Hijacking; Browser Bookmark Discovery; Command and Scripting Interpreter; Web Service</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Obfuscated Files or Information; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Obfuscated Files or Information']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>['Network Denial of Service', 'Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Network Denial of Service; Endpoint Denial of Service; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Endpoint Denial of Service', 'Abuse Elevation Control Mechanism', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Exploitation for Privilege Escalation; Endpoint Denial of Service; Abuse Elevation Control Mechanism; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Hijack Execution Flow', 'System Binary Proxy Execution', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Hijack Execution Flow; System Binary Proxy Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'Data Staged', 'Phishing for Information', 'User Execution', 'Indicator Removal']</t>
+          <t>Impair Defenses; Data Staged; Phishing for Information; User Execution; Indicator Removal</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>['Modify System Image', 'Exploitation of Remote Services', 'Process Injection', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Modify System Image; Exploitation of Remote Services; Process Injection; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>['OS Credential Dumping', 'Unsecured Credentials', 'User Execution', 'Exploitation for Privilege Escalation', 'Credentials from Password Stores']</t>
+          <t>OS Credential Dumping; Unsecured Credentials; User Execution; Exploitation for Privilege Escalation; Credentials from Password Stores</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'Exploitation for Client Execution', 'Masquerading', 'User Execution', 'Exploitation of Remote Services', 'Exploitation for Privilege Escalation', 'Stage Capabilities', 'Obtain Capabilities', 'Exploit Public-Facing Application']</t>
+          <t>Hijack Execution Flow; Exploitation for Client Execution; Masquerading; User Execution; Exploitation of Remote Services; Exploitation for Privilege Escalation; Stage Capabilities; Obtain Capabilities; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Exploitation of Remote Services; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>['Pre-OS Boot', 'Replication Through Removable Media', 'User Execution']</t>
+          <t>Pre-OS Boot; Replication Through Removable Media; User Execution</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>['Create Account', 'Compromise Infrastructure', 'Exploit Public-Facing Application', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Create Account; Compromise Infrastructure; Exploit Public-Facing Application; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'File and Directory Discovery', 'Impair Defenses', 'User Execution', 'Data from Removable Media', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; File and Directory Discovery; Impair Defenses; User Execution; Data from Removable Media; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>['Modify Registry', 'User Execution', 'Query Registry']</t>
+          <t>Modify Registry; User Execution; Query Registry</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'User Execution', 'Lateral Tool Transfer', 'Exploitation for Client Execution']</t>
+          <t>Ingress Tool Transfer; User Execution; Lateral Tool Transfer; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution', 'Subvert Trust Controls']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution; Subvert Trust Controls</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation of Remote Services', 'Obfuscated Files or Information', 'Remote Services']</t>
+          <t>User Execution; Exploitation of Remote Services; Obfuscated Files or Information; Remote Services</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Pre-OS Boot', 'Exploitation for Client Execution', 'Build Image on Host', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Subvert Trust Controls; Pre-OS Boot; Exploitation for Client Execution; Build Image on Host; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'System Binary Proxy Execution', 'Exploitation for Client Execution', 'Hijack Execution Flow', 'User Execution', 'Native API']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; System Binary Proxy Execution; Exploitation for Client Execution; Hijack Execution Flow; User Execution; Native API</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Obfuscated Files or Information', 'System Services', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Obfuscated Files or Information; System Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Resource Hijacking', 'Obfuscated Files or Information', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Resource Hijacking; Obfuscated Files or Information; User Execution</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Peripheral Device Discovery', 'Network Denial of Service', 'Pre-OS Boot', 'System Network Configuration Discovery', 'User Execution', 'System Shutdown/Reboot', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Peripheral Device Discovery; Network Denial of Service; Pre-OS Boot; System Network Configuration Discovery; User Execution; System Shutdown/Reboot; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>['Phishing', 'User Execution', 'Data from Local System', 'Exploitation for Client Execution', 'Indicator Removal', 'Application Layer Protocol']</t>
+          <t>Phishing; User Execution; Data from Local System; Exploitation for Client Execution; Indicator Removal; Application Layer Protocol</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'Use Alternate Authentication Material', 'Steal Web Session Cookie', 'Remote Service Session Hijacking', 'User Execution', 'Modify Authentication Process', 'Forge Web Credentials']</t>
+          <t>Access Token Manipulation; Use Alternate Authentication Material; Steal Web Session Cookie; Remote Service Session Hijacking; User Execution; Modify Authentication Process; Forge Web Credentials</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Data Obfuscation', 'Network Sniffing', 'Adversary-in-the-Middle', 'User Execution', 'Email Collection', 'Gather Victim Identity Information', 'Phishing for Information', 'Encrypted Channel']</t>
+          <t>Application Layer Protocol; Data Obfuscation; Network Sniffing; Adversary-in-the-Middle; User Execution; Email Collection; Gather Victim Identity Information; Phishing for Information; Encrypted Channel</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>['System Shutdown/Reboot', 'Virtualization/Sandbox Evasion', 'Data from Local System', 'Peripheral Device Discovery', 'User Execution', 'Exploitation for Client Execution', 'System Information Discovery']</t>
+          <t>System Shutdown/Reboot; Virtualization/Sandbox Evasion; Data from Local System; Peripheral Device Discovery; User Execution; Exploitation for Client Execution; System Information Discovery</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'Modify Authentication Process', 'Use Alternate Authentication Material', 'User Execution', 'Account Access Removal']</t>
+          <t>Remote Service Session Hijacking; Modify Authentication Process; Use Alternate Authentication Material; User Execution; Account Access Removal</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'User Execution']</t>
+          <t>File and Directory Permissions Modification; User Execution</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>['User Execution', 'Process Injection']</t>
+          <t>User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>['Archive Collected Data', 'Data from Local System', 'User Execution', 'Automated Collection']</t>
+          <t>Archive Collected Data; Data from Local System; User Execution; Automated Collection</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Masquerading', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Permissions Modification', 'File and Directory Discovery', 'Data from Local System', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; File and Directory Permissions Modification; File and Directory Discovery; Data from Local System; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>['Credentials from Password Stores', 'Brute Force', 'Modify Authentication Process', 'Unsecured Credentials', 'Input Capture', 'OS Credential Dumping', 'User Execution']</t>
+          <t>Credentials from Password Stores; Brute Force; Modify Authentication Process; Unsecured Credentials; Input Capture; OS Credential Dumping; User Execution</t>
         </is>
       </c>
     </row>
@@ -3991,11 +3991,7 @@
           <t>CVE-2019-9081</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="B297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4005,7 +4001,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Obfuscated Files or Information']</t>
+          <t>Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4013,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4025,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4037,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Command and Scripting Interpreter', 'Hijack Execution Flow', 'Modify Authentication Process', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'Process Injection']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Use Alternate Authentication Material; Command and Scripting Interpreter; Hijack Execution Flow; Modify Authentication Process; Exploit Public-Facing Application; Exploitation of Remote Services; Process Injection</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4049,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>File and Directory Discovery; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4061,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'Exploitation for Client Execution', 'Impair Defenses', 'Exploitation for Privilege Escalation', 'Virtualization/Sandbox Evasion', 'Process Injection', 'Exploitation for Defense Evasion', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Access Token Manipulation; Exploitation for Client Execution; Impair Defenses; Exploitation for Privilege Escalation; Virtualization/Sandbox Evasion; Process Injection; Exploitation for Defense Evasion; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4073,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obfuscated Files or Information', 'User Execution', 'Template Injection']</t>
+          <t>Exploitation for Client Execution; Obfuscated Files or Information; User Execution; Template Injection</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4085,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>['Valid Accounts', 'Modify Authentication Process', 'Brute Force', 'Create Account', 'Compromise Accounts', 'User Execution']</t>
+          <t>Valid Accounts; Modify Authentication Process; Brute Force; Create Account; Compromise Accounts; User Execution</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Subvert Trust Controls']</t>
+          <t>Exploitation for Client Execution; User Execution; Subvert Trust Controls</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4109,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Adversary-in-the-Middle', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Adversary-in-the-Middle; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4121,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4133,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution', 'Abuse Elevation Control Mechanism']</t>
+          <t>Exploitation for Privilege Escalation; User Execution; Abuse Elevation Control Mechanism</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4145,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Endpoint Denial of Service', 'Office Application Startup', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; Endpoint Denial of Service; Office Application Startup; User Execution</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4157,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Scheduled Task/Job', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Modify Authentication Process']</t>
+          <t>Exploitation for Privilege Escalation; Scheduled Task/Job; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4169,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Obtain Capabilities', 'User Execution', 'Email Collection', 'Develop Capabilities', 'Browser Session Hijacking', 'Gather Victim Identity Information', 'Phishing for Information']</t>
+          <t>Subvert Trust Controls; Obtain Capabilities; User Execution; Email Collection; Develop Capabilities; Browser Session Hijacking; Gather Victim Identity Information; Phishing for Information</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4181,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>['Browser Session Hijacking', 'Use Alternate Authentication Material', 'Exploit Public-Facing Application', 'Stage Capabilities', 'Modify Authentication Process', 'Browser Bookmark Discovery']</t>
+          <t>Browser Session Hijacking; Use Alternate Authentication Material; Exploit Public-Facing Application; Stage Capabilities; Modify Authentication Process; Browser Bookmark Discovery</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4193,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Template Injection', 'Use Alternate Authentication Material', 'Subvert Trust Controls', 'Indirect Command Execution', 'Modify Authentication Process', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Template Injection; Use Alternate Authentication Material; Subvert Trust Controls; Indirect Command Execution; Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4205,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Hijack Execution Flow', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Use Alternate Authentication Material; Exploitation of Remote Services; Hijack Execution Flow; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4217,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation of Remote Services']</t>
+          <t>User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4229,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4241,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4253,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'Brute Force', 'User Execution']</t>
+          <t>Modify Authentication Process; Brute Force; User Execution</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4265,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4277,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Data Staged', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Data Staged; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4289,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>['Create Account', 'Valid Accounts', 'Abuse Elevation Control Mechanism', 'User Execution', 'Account Manipulation', 'Exploitation for Client Execution']</t>
+          <t>Create Account; Valid Accounts; Abuse Elevation Control Mechanism; User Execution; Account Manipulation; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4301,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'System Binary Proxy Execution', 'Shared Modules', 'Process Injection', 'User Execution']</t>
+          <t>Hijack Execution Flow; System Binary Proxy Execution; Shared Modules; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4313,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Application Layer Protocol', 'Exploit Public-Facing Application', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Obtain Capabilities; Application Layer Protocol; Exploit Public-Facing Application; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4325,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>['Obtain Capabilities', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Obtain Capabilities; Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4337,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'User Execution', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Impair Defenses; User Execution; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4349,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Virtualization/Sandbox Evasion', 'User Execution', 'Archive Collected Data']</t>
+          <t>Exploitation for Client Execution; Virtualization/Sandbox Evasion; User Execution; Archive Collected Data</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4361,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Exploitation for Privilege Escalation; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4373,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>['System Shutdown/Reboot', 'Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>System Shutdown/Reboot; Exploit Public-Facing Application; Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4385,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'Exploitation for Client Execution', 'User Execution', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Server Software Component; Exploitation for Client Execution; User Execution; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4397,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>['Clipboard Data', 'Impair Defenses', 'Proxy', 'User Execution', 'Modify System Image']</t>
+          <t>Clipboard Data; Impair Defenses; Proxy; User Execution; Modify System Image</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4409,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>['Stage Capabilities', 'Input Capture', 'Template Injection', 'Browser Session Hijacking', 'User Execution']</t>
+          <t>Stage Capabilities; Input Capture; Template Injection; Browser Session Hijacking; User Execution</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4421,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4433,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4445,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'Exploitation for Defense Evasion', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation for Privilege Escalation; Exploitation for Defense Evasion; User Execution</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4457,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Template Injection; Use Alternate Authentication Material; Modify Authentication Process; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4469,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'Exploitation for Client Execution', 'Phishing', 'User Execution', 'Browser Session Hijacking', 'Exploit Public-Facing Application']</t>
+          <t>Impair Defenses; Exploitation for Client Execution; Phishing; User Execution; Browser Session Hijacking; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4481,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism']</t>
+          <t>User Execution; Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4493,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Drive-by Compromise', 'Access Token Manipulation', 'Forge Web Credentials', 'Stage Capabilities', 'Exploitation of Remote Services', 'User Execution', 'Exploit Public-Facing Application', 'Use Alternate Authentication Material']</t>
+          <t>Exploitation for Client Execution; Drive-by Compromise; Access Token Manipulation; Forge Web Credentials; Stage Capabilities; Exploitation of Remote Services; User Execution; Exploit Public-Facing Application; Use Alternate Authentication Material</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4505,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>['System Owner/User Discovery', 'User Execution']</t>
+          <t>System Owner/User Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4517,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Application Layer Protocol', 'User Execution', 'Data Encoding', 'Server Software Component', 'Exploitation for Client Execution', 'Obfuscated Files or Information']</t>
+          <t>Exploit Public-Facing Application; Application Layer Protocol; User Execution; Data Encoding; Server Software Component; Exploitation for Client Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4529,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Server Software Component']</t>
+          <t>Exploit Public-Facing Application; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Server Software Component</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4541,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Server Software Component', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Server Software Component; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4553,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Stage Capabilities', 'Obtain Capabilities', 'Exploit Public-Facing Application', 'Compromise Infrastructure', 'Server Software Component', 'Exploitation for Client Execution', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Endpoint Denial of Service; Stage Capabilities; Obtain Capabilities; Exploit Public-Facing Application; Compromise Infrastructure; Server Software Component; Exploitation for Client Execution; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4565,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Resource Hijacking', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Network Denial of Service', 'Modify Authentication Process']</t>
+          <t>Endpoint Denial of Service; Resource Hijacking; Use Alternate Authentication Material; Obtain Capabilities; Network Denial of Service; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4577,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4589,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'User Execution']</t>
+          <t>File and Directory Permissions Modification; User Execution</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4601,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Data Manipulation', 'Exploitation for Client Execution', 'Server Software Component', 'User Execution', 'Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Web Service']</t>
+          <t>Exploit Public-Facing Application; Data Manipulation; Exploitation for Client Execution; Server Software Component; User Execution; Use Alternate Authentication Material; Exploitation of Remote Services; Web Service</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4613,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'User Execution', 'Abuse Elevation Control Mechanism']</t>
+          <t>Hijack Execution Flow; User Execution; Abuse Elevation Control Mechanism</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4625,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4637,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4649,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>['Steal or Forge Kerberos Tickets', 'System Owner/User Discovery', 'User Execution']</t>
+          <t>Steal or Forge Kerberos Tickets; System Owner/User Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4661,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'User Execution']</t>
+          <t>Hijack Execution Flow; User Execution</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4685,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'User Execution']</t>
+          <t>Subvert Trust Controls; User Execution</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4697,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>['Data Encrypted for Impact', 'Obfuscated Files or Information', 'Archive Collected Data', 'User Execution']</t>
+          <t>Data Encrypted for Impact; Obfuscated Files or Information; Archive Collected Data; User Execution</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4709,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Permission Groups Discovery', 'User Execution', 'Abuse Elevation Control Mechanism', 'Domain Policy Modification', 'Steal or Forge Kerberos Tickets']</t>
+          <t>Subvert Trust Controls; Permission Groups Discovery; User Execution; Abuse Elevation Control Mechanism; Domain Policy Modification; Steal or Forge Kerberos Tickets</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4721,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Query Registry', 'Supply Chain Compromise', 'Software Discovery', 'Obtain Capabilities', 'Network Denial of Service', 'Endpoint Denial of Service', 'Exploit Public-Facing Application', 'User Execution', 'Web Service']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Query Registry; Supply Chain Compromise; Software Discovery; Obtain Capabilities; Network Denial of Service; Endpoint Denial of Service; Exploit Public-Facing Application; User Execution; Web Service</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4733,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4745,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'User Execution', 'Process Injection']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Exploitation for Client Execution; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4757,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploit Public-Facing Application', 'User Execution', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Exploit Public-Facing Application; User Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4769,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'Process Injection', 'User Execution', 'Browser Session Hijacking']</t>
+          <t>Server Software Component; Process Injection; User Execution; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4781,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4793,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Exploitation of Remote Services', 'User Execution', 'Network Boundary Bridging', 'Exploitation for Client Execution', 'System Binary Proxy Execution', 'Acquire Infrastructure', 'Stage Capabilities', 'Drive-by Compromise', 'Exploit Public-Facing Application', 'Hijack Execution Flow']</t>
+          <t>Ingress Tool Transfer; Exploitation of Remote Services; User Execution; Network Boundary Bridging; Exploitation for Client Execution; System Binary Proxy Execution; Acquire Infrastructure; Stage Capabilities; Drive-by Compromise; Exploit Public-Facing Application; Hijack Execution Flow</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4805,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Archive Collected Data', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Obfuscated Files or Information; Archive Collected Data; Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4817,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'Exploitation for Privilege Escalation', 'Exploitation of Remote Services', 'User Execution', 'Exploit Public-Facing Application', 'Create Account']</t>
+          <t>Modify Authentication Process; Exploitation for Privilege Escalation; Exploitation of Remote Services; User Execution; Exploit Public-Facing Application; Create Account</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4829,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Server Software Component', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Server Software Component; User Execution</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4841,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Exploitation for Client Execution; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4853,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4865,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Command and Scripting Interpreter', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'Data Manipulation', 'Indicator Removal']</t>
+          <t>Exploitation for Client Execution; Command and Scripting Interpreter; User Execution; Exploit Public-Facing Application; Exploitation of Remote Services; Data Manipulation; Indicator Removal</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4877,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Process Injection', 'Obfuscated Files or Information', 'Template Injection']</t>
+          <t>Exploitation for Client Execution; User Execution; Process Injection; Obfuscated Files or Information; Template Injection</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4889,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Stage Capabilities', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Endpoint Denial of Service; Exploit Public-Facing Application; Exploitation for Client Execution; Stage Capabilities; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4901,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Credentials from Password Stores', 'Stage Capabilities', 'Phishing', 'Command and Scripting Interpreter', 'Browser Session Hijacking', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Credentials from Password Stores; Stage Capabilities; Phishing; Command and Scripting Interpreter; Browser Session Hijacking; Web Service</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4913,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4925,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>['Archive Collected Data', 'Exploitation for Client Execution', 'Obfuscated Files or Information', 'Template Injection', 'Phishing', 'Deobfuscate/Decode Files or Information', 'User Execution']</t>
+          <t>Archive Collected Data; Exploitation for Client Execution; Obfuscated Files or Information; Template Injection; Phishing; Deobfuscate/Decode Files or Information; User Execution</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4937,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4949,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>['System Owner/User Discovery', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>System Owner/User Discovery; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4961,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obfuscated Files or Information', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Use Alternate Authentication Material; Obfuscated Files or Information; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4973,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>['Valid Accounts', 'Server Software Component', 'Abuse Elevation Control Mechanism', 'User Execution', 'Email Collection', 'Gather Victim Identity Information', 'Phishing for Information', 'Data from Information Repositories']</t>
+          <t>Valid Accounts; Server Software Component; Abuse Elevation Control Mechanism; User Execution; Email Collection; Gather Victim Identity Information; Phishing for Information; Data from Information Repositories</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4985,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -5001,7 +4997,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>['Resource Hijacking', 'Ingress Tool Transfer', 'Endpoint Denial of Service', 'User Execution', 'Network Denial of Service']</t>
+          <t>Resource Hijacking; Ingress Tool Transfer; Endpoint Denial of Service; User Execution; Network Denial of Service</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5009,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5021,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'User Execution', 'Exploitation for Credential Access', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; User Execution; Exploitation for Credential Access; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5033,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>['Process Injection', 'User Execution', 'Obfuscated Files or Information']</t>
+          <t>Process Injection; User Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5045,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'Modify Authentication Process', 'Brute Force', 'User Execution']</t>
+          <t>File and Directory Permissions Modification; Modify Authentication Process; Brute Force; User Execution</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5057,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'Exploitation of Remote Services', 'User Execution', 'Native API']</t>
+          <t>Exploitation for Client Execution; Process Injection; Exploitation of Remote Services; User Execution; Native API</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5069,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Obtain Capabilities', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Obtain Capabilities; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5081,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Process Injection', 'Obfuscated Files or Information', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Process Injection; Obfuscated Files or Information; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5093,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Stage Capabilities', 'Obtain Capabilities', 'Server Software Component', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Drive-by Compromise']</t>
+          <t>Endpoint Denial of Service; Exploit Public-Facing Application; Use Alternate Authentication Material; Stage Capabilities; Obtain Capabilities; Server Software Component; Exploitation for Client Execution; Modify Authentication Process; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5105,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Application Layer Protocol', 'Exploitation for Client Execution', 'System Shutdown/Reboot', 'Exploit Public-Facing Application', 'Network Denial of Service', 'Modify Authentication Process', 'Account Access Removal', 'Exploitation for Privilege Escalation', 'User Execution', 'Disk Wipe']</t>
+          <t>Endpoint Denial of Service; Application Layer Protocol; Exploitation for Client Execution; System Shutdown/Reboot; Exploit Public-Facing Application; Network Denial of Service; Modify Authentication Process; Account Access Removal; Exploitation for Privilege Escalation; User Execution; Disk Wipe</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5117,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>['User Execution', 'Stage Capabilities', 'Input Capture', 'Browser Session Hijacking', 'Drive-by Compromise', 'Phishing', 'Internal Spearphishing', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Stage Capabilities; Input Capture; Browser Session Hijacking; Drive-by Compromise; Phishing; Internal Spearphishing; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5129,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5141,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Pre-OS Boot', 'Modify System Image', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Pre-OS Boot; Modify System Image; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5153,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5165,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5177,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5189,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'User Execution']</t>
+          <t>Exploitation of Remote Services; Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5201,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5213,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>['Non-Standard Port', 'Use Alternate Authentication Material', 'Exploit Public-Facing Application', 'Modify Authentication Process', 'Non-Application Layer Protocol']</t>
+          <t>Non-Standard Port; Use Alternate Authentication Material; Exploit Public-Facing Application; Modify Authentication Process; Non-Application Layer Protocol</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5225,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5237,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Command and Scripting Interpreter', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Exploit Public-Facing Application; Command and Scripting Interpreter; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5249,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Process Injection', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; User Execution; Process Injection; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5261,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'Access Token Manipulation', 'Exploitation for Client Execution', 'Command and Scripting Interpreter', 'Modify Authentication Process', 'Use Alternate Authentication Material', 'User Execution', 'Account Access Removal', 'Exploit Public-Facing Application']</t>
+          <t>Remote Service Session Hijacking; Access Token Manipulation; Exploitation for Client Execution; Command and Scripting Interpreter; Modify Authentication Process; Use Alternate Authentication Material; User Execution; Account Access Removal; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5273,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>['Masquerading', 'Access Token Manipulation', 'User Execution', 'Hijack Execution Flow', 'Valid Accounts']</t>
+          <t>Masquerading; Access Token Manipulation; User Execution; Hijack Execution Flow; Valid Accounts</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5285,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>['User Execution', 'File and Directory Discovery']</t>
+          <t>User Execution; File and Directory Discovery</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5297,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'Hijack Execution Flow', 'Abuse Elevation Control Mechanism', 'User Execution', 'Process Injection']</t>
+          <t>Exploitation for Client Execution; Exploitation for Privilege Escalation; Hijack Execution Flow; Abuse Elevation Control Mechanism; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5309,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Access Token Manipulation', 'Valid Accounts', 'User Execution', 'Adversary-in-the-Middle', 'Account Manipulation']</t>
+          <t>Network Sniffing; Access Token Manipulation; Valid Accounts; User Execution; Adversary-in-the-Middle; Account Manipulation</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5321,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>['Brute Force', 'OS Credential Dumping', 'Unsecured Credentials', 'Credentials from Password Stores', 'Phishing for Information', 'Password Policy Discovery', 'User Execution']</t>
+          <t>Brute Force; OS Credential Dumping; Unsecured Credentials; Credentials from Password Stores; Phishing for Information; Password Policy Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5333,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Non-Standard Port', 'Non-Application Layer Protocol', 'Remote Services', 'User Execution', 'Data Destruction', 'Exploitation of Remote Services']</t>
+          <t>Indicator Removal; Non-Standard Port; Non-Application Layer Protocol; Remote Services; User Execution; Data Destruction; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5345,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Process Injection']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5357,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>['Virtualization/Sandbox Evasion', 'User Execution', 'Adversary-in-the-Middle']</t>
+          <t>Virtualization/Sandbox Evasion; User Execution; Adversary-in-the-Middle</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5369,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Adversary-in-the-Middle', 'Exploitation of Remote Services', 'User Execution', 'Multi-Factor Authentication Interception']</t>
+          <t>Network Sniffing; Exploitation for Client Execution; Exploit Public-Facing Application; Adversary-in-the-Middle; Exploitation of Remote Services; User Execution; Multi-Factor Authentication Interception</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5381,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Command and Scripting Interpreter', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; Command and Scripting Interpreter; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5393,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5405,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5417,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'Exploitation for Client Execution', 'Process Injection', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; Exploitation for Client Execution; Process Injection; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5429,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>['User Execution', 'Data Manipulation']</t>
+          <t>User Execution; Data Manipulation</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5441,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5453,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Process Injection', 'File and Directory Discovery', 'Endpoint Denial of Service', 'Supply Chain Compromise', 'Obtain Capabilities', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'Software Discovery', 'Impair Defenses']</t>
+          <t>User Execution; Exploitation for Client Execution; Process Injection; File and Directory Discovery; Endpoint Denial of Service; Supply Chain Compromise; Obtain Capabilities; Exploit Public-Facing Application; Exploitation of Remote Services; Software Discovery; Impair Defenses</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5465,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Disk Wipe', 'Data Destruction', 'Process Injection', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Abuse Elevation Control Mechanism; Disk Wipe; Data Destruction; Process Injection; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5477,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5489,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5501,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploit Public-Facing Application', 'Remote Services', 'User Execution', 'System Services', 'Exploitation for Client Execution']</t>
+          <t>Command and Scripting Interpreter; Exploit Public-Facing Application; Remote Services; User Execution; System Services; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5513,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obfuscated Files or Information', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Obfuscated Files or Information; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5525,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>['Adversary-in-the-Middle', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Adversary-in-the-Middle; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5537,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5549,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation of Remote Services']</t>
+          <t>User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5561,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'User Execution']</t>
+          <t>Ingress Tool Transfer; User Execution</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5573,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Account Access Removal']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Account Access Removal</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5585,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5597,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Adversary-in-the-Middle', 'User Execution']</t>
+          <t>Network Sniffing; Adversary-in-the-Middle; User Execution</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5609,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5621,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5633,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'Access Token Manipulation', 'Template Injection', 'Multi-Factor Authentication Interception', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; Access Token Manipulation; Template Injection; Multi-Factor Authentication Interception; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5645,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Adversary-in-the-Middle', 'Proxy', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Adversary-in-the-Middle; Proxy; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5657,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'Data Staged', 'Exploitation for Privilege Escalation', 'User Execution', 'Execution Guardrails', 'Data from Local System', 'Hide Artifacts']</t>
+          <t>Impair Defenses; Data Staged; Exploitation for Privilege Escalation; User Execution; Execution Guardrails; Data from Local System; Hide Artifacts</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5669,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution', 'Use Alternate Authentication Material']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution; Use Alternate Authentication Material</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5681,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>['Account Manipulation', 'Forge Web Credentials', 'Subvert Trust Controls', 'User Execution']</t>
+          <t>Account Manipulation; Forge Web Credentials; Subvert Trust Controls; User Execution</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5693,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Credentials from Password Stores', 'Modify Authentication Process', 'Impair Defenses', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Use Alternate Authentication Material; Credentials from Password Stores; Modify Authentication Process; Impair Defenses; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5705,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'Exploitation for Client Execution', 'Virtualization/Sandbox Evasion', 'Exploitation of Remote Services', 'Network Boundary Bridging', 'System Network Connections Discovery', 'Traffic Signaling', 'User Execution', 'Adversary-in-the-Middle', 'Exploit Public-Facing Application']</t>
+          <t>File and Directory Permissions Modification; Exploitation for Client Execution; Virtualization/Sandbox Evasion; Exploitation of Remote Services; Network Boundary Bridging; System Network Connections Discovery; Traffic Signaling; User Execution; Adversary-in-the-Middle; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5717,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Access Token Manipulation']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Access Token Manipulation</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5729,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'Encrypted Channel', 'Data Encrypted for Impact', 'User Execution']</t>
+          <t>Deobfuscate/Decode Files or Information; Encrypted Channel; Data Encrypted for Impact; User Execution</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5741,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'System Owner/User Discovery', 'User Execution']</t>
+          <t>Remote Service Session Hijacking; System Owner/User Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5753,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'Data Staged', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Create or Modify System Process', 'Modify Authentication Process']</t>
+          <t>Exploitation of Remote Services; Data Staged; Use Alternate Authentication Material; Obtain Capabilities; Create or Modify System Process; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5765,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>['Process Injection', 'Access Token Manipulation', 'User Execution']</t>
+          <t>Process Injection; Access Token Manipulation; User Execution</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5777,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Proxy', 'Adversary-in-the-Middle', 'User Execution', 'Exploitation of Remote Services', 'Video Capture', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Proxy; Adversary-in-the-Middle; User Execution; Exploitation of Remote Services; Video Capture; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5789,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Stage Capabilities', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Stage Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5801,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'System Script Proxy Execution']</t>
+          <t>Subvert Trust Controls; Use Alternate Authentication Material; Modify Authentication Process; System Script Proxy Execution</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5813,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'Create Account', 'Account Access Removal', 'Valid Accounts', 'User Execution']</t>
+          <t>Modify Authentication Process; Create Account; Account Access Removal; Valid Accounts; User Execution</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5825,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5837,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>['System Information Discovery', 'User Execution']</t>
+          <t>System Information Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5849,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>['Dynamic Resolution', 'File and Directory Discovery', 'Application Layer Protocol', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Dynamic Resolution; File and Directory Discovery; Application Layer Protocol; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5861,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'User Execution', 'Brute Force', 'Exploitation for Privilege Escalation']</t>
+          <t>Modify Authentication Process; User Execution; Brute Force; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5873,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>['Masquerading', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Masquerading; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5885,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>['Modify System Image', 'User Execution']</t>
+          <t>Modify System Image; User Execution</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5897,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'User Execution']</t>
+          <t>Access Token Manipulation; User Execution</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5909,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5921,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Phishing', 'Browser Session Hijacking', 'Event Triggered Execution', 'Stage Capabilities', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Phishing; Browser Session Hijacking; Event Triggered Execution; Stage Capabilities; Web Service</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5933,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>['Unsecured Credentials', 'Scheduled Task/Job', 'Input Capture', 'Phishing for Information', 'OS Credential Dumping', 'User Execution', 'Credentials from Password Stores']</t>
+          <t>Unsecured Credentials; Scheduled Task/Job; Input Capture; Phishing for Information; OS Credential Dumping; User Execution; Credentials from Password Stores</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5945,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Indicator Removal']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process; Indicator Removal</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5969,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Client Execution; Modify Authentication Process; Exploitation for Privilege Escalation; Use Alternate Authentication Material; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5981,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Account Discovery', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Account Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5993,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>['Masquerading', 'User Execution']</t>
+          <t>Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6005,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6017,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>['Modify Registry', 'Data Staged', 'User Execution', 'Modify Cloud Compute Infrastructure', 'Indicator Removal']</t>
+          <t>Modify Registry; Data Staged; User Execution; Modify Cloud Compute Infrastructure; Indicator Removal</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6029,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Obfuscated Files or Information']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6041,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6053,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Command and Scripting Interpreter', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Command and Scripting Interpreter; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6065,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>['Valid Accounts', 'OS Credential Dumping', 'Exploitation for Privilege Escalation', 'Modify Authentication Process', 'Obtain Capabilities', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Unsecured Credentials', 'Taint Shared Content', 'Brute Force', 'Credentials from Password Stores', 'Network Share Discovery']</t>
+          <t>Valid Accounts; OS Credential Dumping; Exploitation for Privilege Escalation; Modify Authentication Process; Obtain Capabilities; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Unsecured Credentials; Taint Shared Content; Brute Force; Credentials from Password Stores; Network Share Discovery</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6077,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Deobfuscate/Decode Files or Information', 'Obfuscated Files or Information', 'Masquerading', 'User Execution']</t>
+          <t>Subvert Trust Controls; Deobfuscate/Decode Files or Information; Obfuscated Files or Information; Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6089,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>['User Execution', 'Process Injection']</t>
+          <t>User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6101,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'System Shutdown/Reboot', 'Network Denial of Service', 'Pre-OS Boot', 'User Execution', 'Adversary-in-the-Middle', 'Modify System Image', 'Peripheral Device Discovery', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; System Shutdown/Reboot; Network Denial of Service; Pre-OS Boot; User Execution; Adversary-in-the-Middle; Modify System Image; Peripheral Device Discovery; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6113,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6125,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6137,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Abuse Elevation Control Mechanism', 'Indirect Command Execution', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Command and Scripting Interpreter; Abuse Elevation Control Mechanism; Indirect Command Execution; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6149,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Obfuscated Files or Information', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Obfuscated Files or Information; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6161,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>['Masquerading', 'User Execution']</t>
+          <t>Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6173,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'User Execution', 'Modify System Image', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Exploitation for Privilege Escalation; User Execution; Modify System Image; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6185,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Server Software Component', 'Exploitation for Privilege Escalation', 'Browser Session Hijacking', 'User Execution', 'Browser Extensions', 'Command and Scripting Interpreter']</t>
+          <t>Abuse Elevation Control Mechanism; Server Software Component; Exploitation for Privilege Escalation; Browser Session Hijacking; User Execution; Browser Extensions; Command and Scripting Interpreter</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6197,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6209,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'Compromise Accounts', 'Establish Accounts', 'Use Alternate Authentication Material', 'Account Manipulation', 'User Execution', 'Modify Authentication Process', 'Valid Accounts']</t>
+          <t>Access Token Manipulation; Compromise Accounts; Establish Accounts; Use Alternate Authentication Material; Account Manipulation; User Execution; Modify Authentication Process; Valid Accounts</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6221,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Resource Hijacking', 'Network Denial of Service', 'System Shutdown/Reboot', 'Non-Application Layer Protocol', 'User Execution', 'Adversary-in-the-Middle', 'Pre-OS Boot', 'Network Sniffing', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Resource Hijacking; Network Denial of Service; System Shutdown/Reboot; Non-Application Layer Protocol; User Execution; Adversary-in-the-Middle; Pre-OS Boot; Network Sniffing; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6233,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Ingress Tool Transfer; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6245,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'User Execution', 'Process Injection', 'File and Directory Discovery']</t>
+          <t>Exploitation of Remote Services; Exploitation for Client Execution; Exploitation for Privilege Escalation; User Execution; Process Injection; File and Directory Discovery</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6257,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6269,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>['Peripheral Device Discovery', 'Replication Through Removable Media', 'Process Injection', 'Native API', 'User Execution', 'Hijack Execution Flow']</t>
+          <t>Peripheral Device Discovery; Replication Through Removable Media; Process Injection; Native API; User Execution; Hijack Execution Flow</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6281,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Application Layer Protocol', 'Forge Web Credentials', 'User Execution', 'Exploitation of Remote Services', 'Web Service', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Application Layer Protocol; Forge Web Credentials; User Execution; Exploitation of Remote Services; Web Service; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6293,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'Abuse Elevation Control Mechanism', 'Data Manipulation', 'Use Alternate Authentication Material', 'Adversary-in-the-Middle', 'Modify Authentication Process', 'Exploitation for Privilege Escalation', 'Network Boundary Bridging', 'Exploitation of Remote Services']</t>
+          <t>Impair Defenses; Abuse Elevation Control Mechanism; Data Manipulation; Use Alternate Authentication Material; Adversary-in-the-Middle; Modify Authentication Process; Exploitation for Privilege Escalation; Network Boundary Bridging; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6305,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Ingress Tool Transfer', 'Windows Management Instrumentation', 'User Execution', 'Lateral Tool Transfer']</t>
+          <t>Command and Scripting Interpreter; Ingress Tool Transfer; Windows Management Instrumentation; User Execution; Lateral Tool Transfer</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6317,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>['Template Injection', 'Exploitation for Client Execution', 'Event Triggered Execution', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Template Injection; Exploitation for Client Execution; Event Triggered Execution; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6329,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Create Account', 'Abuse Elevation Control Mechanism', 'Drive-by Compromise', 'System Owner/User Discovery', 'Stage Capabilities', 'Phishing', 'File and Directory Permissions Modification', 'Exploit Public-Facing Application', 'Establish Accounts', 'Event Triggered Execution', 'Office Application Startup', 'Ingress Tool Transfer', 'Template Injection', 'Command and Scripting Interpreter', 'Masquerading']</t>
+          <t>User Execution; Exploitation for Client Execution; Create Account; Abuse Elevation Control Mechanism; Drive-by Compromise; System Owner/User Discovery; Stage Capabilities; Phishing; File and Directory Permissions Modification; Exploit Public-Facing Application; Establish Accounts; Event Triggered Execution; Office Application Startup; Ingress Tool Transfer; Template Injection; Command and Scripting Interpreter; Masquerading</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6341,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Obtain Capabilities', 'Input Capture', 'User Execution', 'Impair Defenses', 'Application Layer Protocol']</t>
+          <t>Endpoint Denial of Service; Obtain Capabilities; Input Capture; User Execution; Impair Defenses; Application Layer Protocol</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6353,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Adversary-in-the-Middle', 'User Execution']</t>
+          <t>Network Sniffing; Adversary-in-the-Middle; User Execution</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6365,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Modify Authentication Process', 'Indirect Command Execution', 'Input Capture', 'User Execution', 'Brute Force', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Modify Authentication Process; Indirect Command Execution; Input Capture; User Execution; Brute Force; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6377,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Stage Capabilities', 'Exploitation for Client Execution', 'Server Software Component', 'Modify Authentication Process', 'Drive-by Compromise']</t>
+          <t>Endpoint Denial of Service; Exploit Public-Facing Application; Use Alternate Authentication Material; Stage Capabilities; Exploitation for Client Execution; Server Software Component; Modify Authentication Process; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6389,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6401,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Network Denial of Service', 'Exploitation for Client Execution', 'Network Boundary Bridging', 'User Execution', 'Data Obfuscation', 'Endpoint Denial of Service', 'Exploit Public-Facing Application']</t>
+          <t>Application Layer Protocol; Network Denial of Service; Exploitation for Client Execution; Network Boundary Bridging; User Execution; Data Obfuscation; Endpoint Denial of Service; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6413,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Create Account']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6425,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Native API', 'Abuse Elevation Control Mechanism', 'Process Injection', 'Modify Authentication Process', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Privilege Escalation; Use Alternate Authentication Material; Native API; Abuse Elevation Control Mechanism; Process Injection; Modify Authentication Process; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6437,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Valid Accounts', 'Virtualization/Sandbox Evasion', 'Exploitation for Privilege Escalation', 'Indirect Command Execution', 'User Execution', 'Native API', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Abuse Elevation Control Mechanism; Exploitation for Client Execution; Valid Accounts; Virtualization/Sandbox Evasion; Exploitation for Privilege Escalation; Indirect Command Execution; User Execution; Native API; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6449,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation for Client Execution']</t>
+          <t>Application Layer Protocol; User Execution; Exploit Public-Facing Application; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Modify System Image', 'Process Injection', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Modify System Image; Process Injection; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6473,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Browser Session Hijacking', 'Phishing', 'Browser Bookmark Discovery', 'Event Triggered Execution', 'Stage Capabilities', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Browser Session Hijacking; Phishing; Browser Bookmark Discovery; Event Triggered Execution; Stage Capabilities; Web Service</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6485,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'User Execution', 'Lateral Tool Transfer', 'Exploitation for Client Execution']</t>
+          <t>Ingress Tool Transfer; User Execution; Lateral Tool Transfer; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6497,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6509,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6521,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6533,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6545,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Process Injection', 'Abuse Elevation Control Mechanism', 'Access Token Manipulation', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Privilege Escalation; Exploitation for Client Execution; Process Injection; Abuse Elevation Control Mechanism; Access Token Manipulation; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6557,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Phishing', 'Exploit Public-Facing Application', 'Browser Session Hijacking', 'Stage Capabilities', 'Peripheral Device Discovery', 'Forge Web Credentials', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Phishing; Exploit Public-Facing Application; Browser Session Hijacking; Stage Capabilities; Peripheral Device Discovery; Forge Web Credentials; Web Service</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6569,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>['Boot or Logon Autostart Execution', 'Masquerading', 'User Execution']</t>
+          <t>Boot or Logon Autostart Execution; Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6581,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6593,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Use Alternate Authentication Material', 'Adversary-in-the-Middle', 'Modify Authentication Process', 'Exploitation of Remote Services']</t>
+          <t>Obfuscated Files or Information; Use Alternate Authentication Material; Adversary-in-the-Middle; Modify Authentication Process; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6605,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Process Injection']</t>
+          <t>User Execution; Exploitation for Client Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6617,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6629,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Drive-by Compromise', 'Stage Capabilities', 'Use Alternate Authentication Material', 'Server Software Component', 'Modify Authentication Process', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Drive-by Compromise; Stage Capabilities; Use Alternate Authentication Material; Server Software Component; Modify Authentication Process; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6641,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>['Protocol Tunneling', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Peripheral Device Discovery', 'Pre-OS Boot', 'User Execution', 'Command and Scripting Interpreter', 'Boot or Logon Autostart Execution', 'Exploitation for Privilege Escalation', 'Proxy', 'Exploit Public-Facing Application']</t>
+          <t>Protocol Tunneling; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Peripheral Device Discovery; Pre-OS Boot; User Execution; Command and Scripting Interpreter; Boot or Logon Autostart Execution; Exploitation for Privilege Escalation; Proxy; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6653,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6665,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6677,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Stage Capabilities', 'Server Software Component', 'Modify Authentication Process', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Stage Capabilities; Server Software Component; Modify Authentication Process; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6689,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obfuscated Files or Information', 'Impair Defenses', 'Virtualization/Sandbox Evasion', 'Exploitation of Remote Services', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Obfuscated Files or Information; Impair Defenses; Virtualization/Sandbox Evasion; Exploitation of Remote Services; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6701,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>['Valid Accounts', 'User Execution']</t>
+          <t>Valid Accounts; User Execution</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6713,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6725,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6737,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; User Execution; Exploit Public-Facing Application; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6749,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Obfuscated Files or Information', 'User Execution', 'Process Injection']</t>
+          <t>Exploit Public-Facing Application; Obfuscated Files or Information; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6761,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'User Execution', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Abuse Elevation Control Mechanism; User Execution; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6773,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Remote Services', 'Command and Scripting Interpreter', 'User Execution', 'Exploitation of Remote Services', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Privilege Escalation; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Remote Services; Command and Scripting Interpreter; User Execution; Exploitation of Remote Services; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6785,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obfuscated Files or Information', 'Use Alternate Authentication Material', 'Archive Collected Data', 'Modify Authentication Process', 'Exploit Public-Facing Application', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Obfuscated Files or Information; Use Alternate Authentication Material; Archive Collected Data; Modify Authentication Process; Exploit Public-Facing Application; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6797,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Exploitation for Privilege Escalation', 'Server Software Component', 'Abuse Elevation Control Mechanism', 'Browser Session Hijacking', 'Indirect Command Execution', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Exploit Public-Facing Application; Exploitation for Privilege Escalation; Server Software Component; Abuse Elevation Control Mechanism; Browser Session Hijacking; Indirect Command Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6809,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Impair Defenses', 'System Shutdown/Reboot', 'Exploit Public-Facing Application', 'Modify System Image', 'Application Layer Protocol', 'Proxy', 'Pre-OS Boot', 'Process Injection', 'User Execution', 'Traffic Signaling']</t>
+          <t>Exploitation for Client Execution; Impair Defenses; System Shutdown/Reboot; Exploit Public-Facing Application; Modify System Image; Application Layer Protocol; Proxy; Pre-OS Boot; Process Injection; User Execution; Traffic Signaling</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6821,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Stage Capabilities', 'Obtain Capabilities', 'Exploitation for Client Execution', 'Server Software Component', 'Obfuscated Files or Information', 'Modify Authentication Process', 'Drive-by Compromise']</t>
+          <t>Use Alternate Authentication Material; Stage Capabilities; Obtain Capabilities; Exploitation for Client Execution; Server Software Component; Obfuscated Files or Information; Modify Authentication Process; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6833,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'User Execution', 'Remote Services']</t>
+          <t>Command and Scripting Interpreter; User Execution; Remote Services</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6845,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Modify Authentication Process', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Use Alternate Authentication Material; Exploitation of Remote Services; Modify Authentication Process; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6857,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>['Create Account', 'File and Directory Permissions Modification', 'Impair Defenses', 'User Execution', 'Domain Policy Modification']</t>
+          <t>Create Account; File and Directory Permissions Modification; Impair Defenses; User Execution; Domain Policy Modification</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6869,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Indirect Command Execution', 'User Execution']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Indirect Command Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6881,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Drive-by Compromise', 'User Execution', 'Command and Scripting Interpreter']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Drive-by Compromise; User Execution; Command and Scripting Interpreter</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6893,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Server Software Component', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Obfuscated Files or Information; Exploit Public-Facing Application; Use Alternate Authentication Material; Server Software Component; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6905,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'File and Directory Permissions Modification', 'Modify Authentication Process']</t>
+          <t>Hijack Execution Flow; Exploitation for Client Execution; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; File and Directory Permissions Modification; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6917,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>['User Execution', 'Obfuscated Files or Information']</t>
+          <t>User Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6929,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6941,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Obtain Capabilities', 'User Execution', 'Phishing']</t>
+          <t>Exploitation for Client Execution; Template Injection; Obtain Capabilities; User Execution; Phishing</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6953,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6965,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Encrypted Channel', 'Modify Authentication Process', 'Deobfuscate/Decode Files or Information']</t>
+          <t>Obfuscated Files or Information; Use Alternate Authentication Material; Obtain Capabilities; Encrypted Channel; Modify Authentication Process; Deobfuscate/Decode Files or Information</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6977,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Exploit Public-Facing Application', 'Command and Scripting Interpreter']</t>
+          <t>Exploitation for Client Execution; User Execution; Exploit Public-Facing Application; Command and Scripting Interpreter</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6989,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'User Execution', 'Query Registry']</t>
+          <t>Obfuscated Files or Information; User Execution; Query Registry</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7001,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Impair Defenses', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Endpoint Denial of Service; Impair Defenses; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7013,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7025,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7037,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'User Execution', 'Command and Scripting Interpreter', 'Virtualization/Sandbox Evasion', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Exploitation for Client Execution; User Execution; Command and Scripting Interpreter; Virtualization/Sandbox Evasion; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7049,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Obfuscated Files or Information', 'Obtain Capabilities', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Deploy Container']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Obfuscated Files or Information; Obtain Capabilities; Exploitation for Client Execution; Modify Authentication Process; Deploy Container</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7061,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>['Boot or Logon Autostart Execution', 'Hijack Execution Flow', 'Shared Modules', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'File and Directory Permissions Modification', 'Modify Authentication Process', 'System Binary Proxy Execution', 'Exploitation of Remote Services']</t>
+          <t>Boot or Logon Autostart Execution; Hijack Execution Flow; Shared Modules; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; File and Directory Permissions Modification; Modify Authentication Process; System Binary Proxy Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7073,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7085,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>['Obtain Capabilities', 'User Execution']</t>
+          <t>Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7097,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>['Phishing', 'Use Alternate Authentication Material', 'Stage Capabilities', 'Obtain Capabilities', 'Phishing for Information', 'Internal Spearphishing', 'Exploitation for Client Execution', 'Server Software Component', 'Modify Authentication Process', 'Drive-by Compromise']</t>
+          <t>Phishing; Use Alternate Authentication Material; Stage Capabilities; Obtain Capabilities; Phishing for Information; Internal Spearphishing; Exploitation for Client Execution; Server Software Component; Modify Authentication Process; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7109,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7121,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>['Impair Defenses', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Impair Defenses; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7133,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7145,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Active Scanning', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Active Scanning; User Execution</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7157,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Subvert Trust Controls', 'Pre-OS Boot', 'Modify System Image', 'Build Image on Host', 'User Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; Subvert Trust Controls; Pre-OS Boot; Modify System Image; Build Image on Host; User Execution; Exploit Public-Facing Application; Exploitation of Remote Services; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7169,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>['Process Injection', 'Access Token Manipulation', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Process Injection; Access Token Manipulation; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7181,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7193,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7205,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7217,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Stage Capabilities', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Endpoint Denial of Service; Stage Capabilities; Exploitation for Client Execution; Exploit Public-Facing Application; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7229,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7241,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>['Native API', 'Access Token Manipulation', 'Use Alternate Authentication Material', 'User Execution']</t>
+          <t>Native API; Access Token Manipulation; Use Alternate Authentication Material; User Execution</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7253,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>['Resource Hijacking', 'Endpoint Denial of Service', 'User Execution', 'Data Manipulation']</t>
+          <t>Resource Hijacking; Endpoint Denial of Service; User Execution; Data Manipulation</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7265,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7277,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Endpoint Denial of Service; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7289,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Use Alternate Authentication Material', 'Impair Defenses', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Network Denial of Service', 'Modify System Image']</t>
+          <t>Endpoint Denial of Service; Use Alternate Authentication Material; Impair Defenses; Exploitation for Client Execution; Modify Authentication Process; Network Denial of Service; Modify System Image</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7301,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'Obtain Capabilities', 'User Execution', 'Archive Collected Data']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; Obtain Capabilities; User Execution; Archive Collected Data</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7313,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Command and Scripting Interpreter', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; Command and Scripting Interpreter; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7325,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7337,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Template Injection; Use Alternate Authentication Material; Modify Authentication Process; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7349,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Supply Chain Compromise', 'Obtain Capabilities', 'Software Discovery', 'Exploitation of Remote Services', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Supply Chain Compromise; Obtain Capabilities; Software Discovery; Exploitation of Remote Services; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7361,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'File and Directory Discovery', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Ingress Tool Transfer; File and Directory Discovery; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7373,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Browser Session Hijacking', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Browser Session Hijacking; User Execution</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7385,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Stage Capabilities', 'Exploit Public-Facing Application', 'Server Software Component', 'Obfuscated Files or Information', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; Stage Capabilities; Exploit Public-Facing Application; Server Software Component; Obfuscated Files or Information; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7397,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Server Software Component', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Server Software Component; Exploitation for Client Execution; Exploit Public-Facing Application; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7409,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Exploitation of Remote Services', 'Peripheral Device Discovery', 'Exploit Public-Facing Application', 'Windows Management Instrumentation', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Exploitation of Remote Services; Peripheral Device Discovery; Exploit Public-Facing Application; Windows Management Instrumentation; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7421,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7433,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7445,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Masquerading', 'Data from Local System']</t>
+          <t>Ingress Tool Transfer; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Masquerading; Data from Local System</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7457,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7469,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Non-Application Layer Protocol', 'Network Sniffing', 'User Execution', 'Adversary-in-the-Middle', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Non-Application Layer Protocol; Network Sniffing; User Execution; Adversary-in-the-Middle; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7481,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7493,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'Exploitation of Remote Services', 'Exploitation for Client Execution', 'Obfuscated Files or Information', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Deobfuscate/Decode Files or Information; Exploitation of Remote Services; Exploitation for Client Execution; Obfuscated Files or Information; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7505,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>['Create Account', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Valid Accounts', 'Account Manipulation']</t>
+          <t>Create Account; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Valid Accounts; Account Manipulation</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7517,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Obtain Capabilities', 'User Execution', 'Process Injection']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Obtain Capabilities; User Execution; Process Injection</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7529,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Traffic Signaling', 'Pre-OS Boot', 'Non-Application Layer Protocol', 'Network Boundary Bridging', 'Non-Standard Port', 'User Execution', 'Application Layer Protocol', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Traffic Signaling; Pre-OS Boot; Non-Application Layer Protocol; Network Boundary Bridging; Non-Standard Port; User Execution; Application Layer Protocol; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7541,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Application Layer Protocol', 'Forge Web Credentials', 'User Execution', 'Exploitation of Remote Services', 'Web Service', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Application Layer Protocol; Forge Web Credentials; User Execution; Exploitation of Remote Services; Web Service; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7553,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>['User Execution', 'Endpoint Denial of Service', 'System Shutdown/Reboot', 'Exploitation for Client Execution', 'Dynamic Resolution', 'Network Denial of Service', 'Use Alternate Authentication Material', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'Multi-Factor Authentication Interception']</t>
+          <t>User Execution; Endpoint Denial of Service; System Shutdown/Reboot; Exploitation for Client Execution; Dynamic Resolution; Network Denial of Service; Use Alternate Authentication Material; Exploit Public-Facing Application; Exploitation of Remote Services; Multi-Factor Authentication Interception</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7565,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>['Unsecured Credentials', 'OS Credential Dumping', 'Modify Authentication Process', 'Valid Accounts', 'User Execution']</t>
+          <t>Unsecured Credentials; OS Credential Dumping; Modify Authentication Process; Valid Accounts; User Execution</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7577,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Phishing', 'Stage Capabilities', 'User Execution', 'Input Capture', 'Phishing for Information', 'Browser Session Hijacking', 'Drive-by Compromise']</t>
+          <t>Abuse Elevation Control Mechanism; Phishing; Stage Capabilities; User Execution; Input Capture; Phishing for Information; Browser Session Hijacking; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7589,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'System Binary Proxy Execution']</t>
+          <t>Obfuscated Files or Information; Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; System Binary Proxy Execution</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7601,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Replication Through Removable Media', 'Peripheral Device Discovery', 'Exfiltration Over Physical Medium', 'Pre-OS Boot', 'User Execution', 'Data from Removable Media', 'Command and Scripting Interpreter', 'Abuse Elevation Control Mechanism', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Replication Through Removable Media; Peripheral Device Discovery; Exfiltration Over Physical Medium; Pre-OS Boot; User Execution; Data from Removable Media; Command and Scripting Interpreter; Abuse Elevation Control Mechanism; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7613,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Server Software Component', 'Exploit Public-Facing Application', 'Application Layer Protocol', 'User Execution', 'Pre-OS Boot', 'Exploitation for Privilege Escalation', 'Web Service', 'Data Transfer Size Limits', 'Data Encoding']</t>
+          <t>Exploitation for Client Execution; Abuse Elevation Control Mechanism; Server Software Component; Exploit Public-Facing Application; Application Layer Protocol; User Execution; Pre-OS Boot; Exploitation for Privilege Escalation; Web Service; Data Transfer Size Limits; Data Encoding</t>
         </is>
       </c>
     </row>
@@ -7629,7 +7625,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7637,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'Modify System Image', 'Process Injection', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; Modify System Image; Process Injection; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7649,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>['Brute Force', 'Modify Authentication Process', 'Compromise Accounts', 'Valid Accounts', 'User Execution']</t>
+          <t>Brute Force; Modify Authentication Process; Compromise Accounts; Valid Accounts; User Execution</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7661,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Dynamic Resolution', 'Shared Modules', 'Application Layer Protocol', 'Exploit Public-Facing Application', 'Server Software Component', 'Drive-by Compromise', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Dynamic Resolution; Shared Modules; Application Layer Protocol; Exploit Public-Facing Application; Server Software Component; Drive-by Compromise; User Execution</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7673,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>['Process Injection', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Process Injection; Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7685,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Modify Authentication Process', 'Exploitation for Client Execution', 'Obfuscated Files or Information']</t>
+          <t>Use Alternate Authentication Material; Modify Authentication Process; Exploitation for Client Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7697,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Server Software Component', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Server Software Component; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7709,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>['Modify Registry', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Modify Registry; Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7721,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7733,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Exploitation of Remote Services', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Exploitation for Privilege Escalation; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Exploitation of Remote Services; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7745,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Browser Session Hijacking', 'Browser Bookmark Discovery', 'User Execution', 'Event Triggered Execution', 'Web Service']</t>
+          <t>Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Browser Session Hijacking; Browser Bookmark Discovery; User Execution; Event Triggered Execution; Web Service</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7757,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>['OS Credential Dumping', 'Use Alternate Authentication Material', 'Pre-OS Boot', 'System Network Connections Discovery', 'Brute Force', 'Credentials from Password Stores', 'Input Capture', 'System Network Configuration Discovery', 'User Execution']</t>
+          <t>OS Credential Dumping; Use Alternate Authentication Material; Pre-OS Boot; System Network Connections Discovery; Brute Force; Credentials from Password Stores; Input Capture; System Network Configuration Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7769,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7781,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>['Browser Session Hijacking', 'User Execution', 'Email Collection']</t>
+          <t>Browser Session Hijacking; User Execution; Email Collection</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7793,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7805,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7817,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Masquerading', 'User Execution']</t>
+          <t>File and Directory Discovery; Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7829,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Obtain Capabilities', 'User Execution', 'Email Collection', 'Develop Capabilities', 'Browser Session Hijacking', 'Gather Victim Identity Information', 'Phishing for Information']</t>
+          <t>Subvert Trust Controls; Obtain Capabilities; User Execution; Email Collection; Develop Capabilities; Browser Session Hijacking; Gather Victim Identity Information; Phishing for Information</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7841,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>['Data from Local System', 'Exploitation for Client Execution', 'User Execution', 'Exploitation for Privilege Escalation', 'Ingress Tool Transfer']</t>
+          <t>Data from Local System; Exploitation for Client Execution; User Execution; Exploitation for Privilege Escalation; Ingress Tool Transfer</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7853,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Process Injection', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Process Injection; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7865,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7877,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -7893,7 +7889,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'Data Destruction', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Indicator Removal; Exploitation for Client Execution; Exploitation for Privilege Escalation; Data Destruction; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -7905,7 +7901,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7913,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>['Unsecured Credentials', 'Exploitation for Client Execution', 'Browser Session Hijacking', 'OS Credential Dumping', 'User Execution', 'Credentials from Password Stores', 'Exploit Public-Facing Application']</t>
+          <t>Unsecured Credentials; Exploitation for Client Execution; Browser Session Hijacking; OS Credential Dumping; User Execution; Credentials from Password Stores; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7925,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'User Execution']</t>
+          <t>Use Alternate Authentication Material; User Execution</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7937,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>['User Execution', 'Hijack Execution Flow', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Hijack Execution Flow; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7949,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Masquerading']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Masquerading</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7961,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Indicator Removal', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Indicator Removal; User Execution</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7973,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7985,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Unsecured Credentials', 'User Execution', 'Credentials from Password Stores']</t>
+          <t>Network Sniffing; Unsecured Credentials; User Execution; Credentials from Password Stores</t>
         </is>
       </c>
     </row>
@@ -8001,7 +7997,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>['System Information Discovery', 'User Execution', 'Exploitation for Client Execution', 'File and Directory Discovery']</t>
+          <t>System Information Discovery; User Execution; Exploitation for Client Execution; File and Directory Discovery</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8009,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8021,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'User Execution', 'Masquerading', 'System Owner/User Discovery', 'Permission Groups Discovery']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; User Execution; Masquerading; System Owner/User Discovery; Permission Groups Discovery</t>
         </is>
       </c>
     </row>
@@ -8037,7 +8033,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>['Archive Collected Data', 'Use Alternate Authentication Material', 'Encrypted Channel', 'Modify Authentication Process']</t>
+          <t>Archive Collected Data; Use Alternate Authentication Material; Encrypted Channel; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8045,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8057,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8069,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Exploitation of Remote Services', 'Inter-Process Communication', 'Office Application Startup', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; Exploitation of Remote Services; Inter-Process Communication; Office Application Startup; User Execution</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8081,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Exploitation for Client Execution', 'Obtain Capabilities', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Subvert Trust Controls; Exploitation for Client Execution; Obtain Capabilities; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8093,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>['Masquerading', 'Use Alternate Authentication Material', 'File and Directory Discovery', 'Valid Accounts', 'Hijack Execution Flow', 'Data from Local System', 'Modify Authentication Process', 'Ingress Tool Transfer']</t>
+          <t>Masquerading; Use Alternate Authentication Material; File and Directory Discovery; Valid Accounts; Hijack Execution Flow; Data from Local System; Modify Authentication Process; Ingress Tool Transfer</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8105,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8117,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Data Manipulation', 'Data Destruction', 'Input Capture', 'User Execution', 'Exploitation for Client Execution', 'Obtain Capabilities', 'Supply Chain Compromise']</t>
+          <t>Exploit Public-Facing Application; Data Manipulation; Data Destruction; Input Capture; User Execution; Exploitation for Client Execution; Obtain Capabilities; Supply Chain Compromise</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8129,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Exploitation for Client Execution', 'Hide Artifacts', 'Modify System Image', 'Ingress Tool Transfer', 'Data Destruction', 'Exploit Public-Facing Application', 'User Execution', 'Exploitation of Remote Services', 'Data Staged']</t>
+          <t>Indicator Removal; Exploitation for Client Execution; Hide Artifacts; Modify System Image; Ingress Tool Transfer; Data Destruction; Exploit Public-Facing Application; User Execution; Exploitation of Remote Services; Data Staged</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8141,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Browser Session Hijacking', 'Phishing', 'Browser Bookmark Discovery', 'Event Triggered Execution', 'Stage Capabilities', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Browser Session Hijacking; Phishing; Browser Bookmark Discovery; Event Triggered Execution; Stage Capabilities; Web Service</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8153,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Server Software Component', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; Use Alternate Authentication Material; Server Software Component; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8165,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'User Execution', 'System Information Discovery']</t>
+          <t>Obfuscated Files or Information; User Execution; System Information Discovery</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8177,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Access Token Manipulation', 'Exploitation for Client Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Access Token Manipulation; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -8193,7 +8189,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Native API', 'Exploit Public-Facing Application', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Obtain Capabilities; Native API; Exploit Public-Facing Application; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8201,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>['User Execution', 'Pre-OS Boot', 'Boot or Logon Autostart Execution']</t>
+          <t>User Execution; Pre-OS Boot; Boot or Logon Autostart Execution</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8213,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Exploitation for Privilege Escalation', 'Application Layer Protocol', 'Exploit Public-Facing Application', 'User Execution', 'Domain Policy Modification']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Client Execution; Exploitation for Privilege Escalation; Application Layer Protocol; Exploit Public-Facing Application; User Execution; Domain Policy Modification</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8225,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>['Create Account', 'Data Manipulation', 'Exploitation for Privilege Escalation', 'Process Injection', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Create Account; Data Manipulation; Exploitation for Privilege Escalation; Process Injection; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8237,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8249,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>['Browser Session Hijacking', 'Stage Capabilities', 'Exploitation for Client Execution', 'Server Software Component', 'Email Collection', 'User Execution', 'Gather Victim Identity Information', 'Phishing for Information', 'Exploit Public-Facing Application', 'Obtain Capabilities', 'Drive-by Compromise']</t>
+          <t>Browser Session Hijacking; Stage Capabilities; Exploitation for Client Execution; Server Software Component; Email Collection; User Execution; Gather Victim Identity Information; Phishing for Information; Exploit Public-Facing Application; Obtain Capabilities; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8261,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'System Services', 'Data Staged', 'User Execution', 'Email Collection', 'Gather Victim Identity Information', 'Phishing for Information', 'Data from Local System']</t>
+          <t>Command and Scripting Interpreter; System Services; Data Staged; User Execution; Email Collection; Gather Victim Identity Information; Phishing for Information; Data from Local System</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8273,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8285,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Stage Capabilities', 'Obtain Capabilities', 'Abuse Elevation Control Mechanism', 'Server Software Component', 'Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Privilege Escalation; Stage Capabilities; Obtain Capabilities; Abuse Elevation Control Mechanism; Server Software Component; Exploitation for Client Execution; Exploit Public-Facing Application; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8297,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Use Alternate Authentication Material', 'Query Registry', 'Modify Registry', 'Exploitation for Privilege Escalation', 'Modify Authentication Process']</t>
+          <t>Abuse Elevation Control Mechanism; Use Alternate Authentication Material; Query Registry; Modify Registry; Exploitation for Privilege Escalation; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8309,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>['Network Sniffing', 'Unsecured Credentials', 'Indicator Removal', 'User Execution', 'Email Collection', 'Gather Victim Identity Information', 'Phishing for Information', 'Impair Defenses']</t>
+          <t>Network Sniffing; Unsecured Credentials; Indicator Removal; User Execution; Email Collection; Gather Victim Identity Information; Phishing for Information; Impair Defenses</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8321,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>['User Execution', 'Access Token Manipulation']</t>
+          <t>User Execution; Access Token Manipulation</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8333,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>['Adversary-in-the-Middle', 'User Execution']</t>
+          <t>Adversary-in-the-Middle; User Execution</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8345,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>['Proxy', 'Exploitation for Client Execution', 'Application Layer Protocol', 'Compromise Infrastructure', 'Modify Authentication Process', 'Exploit Public-Facing Application', 'User Execution', 'Create Account']</t>
+          <t>Proxy; Exploitation for Client Execution; Application Layer Protocol; Compromise Infrastructure; Modify Authentication Process; Exploit Public-Facing Application; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8357,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'Obtain Capabilities', 'Non-Application Layer Protocol', 'User Execution', 'Network Sniffing', 'Adversary-in-the-Middle', 'Application Layer Protocol']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; Obtain Capabilities; Non-Application Layer Protocol; User Execution; Network Sniffing; Adversary-in-the-Middle; Application Layer Protocol</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8369,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8381,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>User Execution; Exploitation for Client Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8393,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'System Binary Proxy Execution', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>File and Directory Permissions Modification; Abuse Elevation Control Mechanism; Exploitation for Client Execution; System Binary Proxy Execution; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8405,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Masquerading', 'User Execution']</t>
+          <t>Ingress Tool Transfer; Masquerading; User Execution</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8417,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Exploitation of Remote Services', 'Remote Services']</t>
+          <t>Exploitation for Client Execution; User Execution; Exploitation of Remote Services; Remote Services</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8429,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'Modify Authentication Process', 'Obtain Capabilities', 'Use Alternate Authentication Material', 'Exploitation for Client Execution']</t>
+          <t>Ingress Tool Transfer; Modify Authentication Process; Obtain Capabilities; Use Alternate Authentication Material; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8441,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Command and Scripting Interpreter', 'Exploit Public-Facing Application', 'User Execution', 'Exploitation of Remote Services', 'Hijack Execution Flow', 'Abuse Elevation Control Mechanism']</t>
+          <t>Exploitation for Client Execution; Command and Scripting Interpreter; Exploit Public-Facing Application; User Execution; Exploitation of Remote Services; Hijack Execution Flow; Abuse Elevation Control Mechanism</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8453,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8465,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8477,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>['System Information Discovery', 'User Execution']</t>
+          <t>System Information Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8489,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>['Server Software Component', 'Stage Capabilities', 'User Execution', 'Browser Session Hijacking']</t>
+          <t>Server Software Component; Stage Capabilities; User Execution; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8501,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution', 'Valid Accounts']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution; Valid Accounts</t>
         </is>
       </c>
     </row>
@@ -8517,7 +8513,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'User Execution']</t>
+          <t>Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8525,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Modify Authentication Process']</t>
+          <t>Exploitation for Privilege Escalation; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8537,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>['Replication Through Removable Media', 'Use Alternate Authentication Material', 'Peripheral Device Discovery', 'Exfiltration Over Physical Medium', 'Proxy', 'Modify Authentication Process']</t>
+          <t>Replication Through Removable Media; Use Alternate Authentication Material; Peripheral Device Discovery; Exfiltration Over Physical Medium; Proxy; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -8553,7 +8549,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'User Execution', 'Obtain Capabilities']</t>
+          <t>Obfuscated Files or Information; User Execution; Obtain Capabilities</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8561,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'Stage Capabilities', 'Input Capture', 'Browser Session Hijacking', 'Use Alternate Authentication Material', 'Dynamic Resolution', 'Abuse Elevation Control Mechanism', 'User Execution', 'Application Layer Protocol']</t>
+          <t>Access Token Manipulation; Stage Capabilities; Input Capture; Browser Session Hijacking; Use Alternate Authentication Material; Dynamic Resolution; Abuse Elevation Control Mechanism; User Execution; Application Layer Protocol</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8573,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Impair Defenses', 'Modify Authentication Process', 'Exploit Public-Facing Application', 'User Execution', 'Create Account', 'Web Service']</t>
+          <t>Exploitation for Client Execution; Impair Defenses; Modify Authentication Process; Exploit Public-Facing Application; User Execution; Create Account; Web Service</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8585,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Valid Accounts', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Valid Accounts; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8597,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8609,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>['Modify Authentication Process', 'User Execution', 'Create Account']</t>
+          <t>Modify Authentication Process; User Execution; Create Account</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8621,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>['File and Directory Discovery', 'Stage Capabilities', 'Exploitation for Client Execution', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>File and Directory Discovery; Stage Capabilities; Exploitation for Client Execution; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8633,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Subvert Trust Controls', 'Valid Accounts', 'Exploitation of Remote Services', 'User Execution', 'Obtain Capabilities']</t>
+          <t>Exploit Public-Facing Application; Subvert Trust Controls; Valid Accounts; Exploitation of Remote Services; User Execution; Obtain Capabilities</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8645,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'System Owner/User Discovery', 'Server Software Component', 'Browser Session Hijacking', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; System Owner/User Discovery; Server Software Component; Browser Session Hijacking; User Execution</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8657,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Discovery', 'Exploit Public-Facing Application', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation for Client Execution; File and Directory Discovery; Exploit Public-Facing Application; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8669,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obtain Capabilities', 'Command and Scripting Interpreter', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Obtain Capabilities; Command and Scripting Interpreter; User Execution</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8681,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -8697,7 +8693,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Obtain Capabilities']</t>
+          <t>Exploitation for Client Execution; User Execution; Obtain Capabilities</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8705,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8717,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Exploitation of Remote Services']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8729,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'Obtain Capabilities', 'Inter-Process Communication', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; Obtain Capabilities; Inter-Process Communication; User Execution</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8741,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Permissions Modification', 'Server Software Component', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'User Execution', 'Exploitation for Privilege Escalation', 'Browser Session Hijacking']</t>
+          <t>Exploitation for Client Execution; File and Directory Permissions Modification; Server Software Component; Exploit Public-Facing Application; Exploitation of Remote Services; User Execution; Exploitation for Privilege Escalation; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8753,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>['User Execution', 'Data Staged']</t>
+          <t>User Execution; Data Staged</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8765,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Hijack Execution Flow', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Hijack Execution Flow; User Execution</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8777,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'Exploitation for Privilege Escalation', 'Input Capture', 'Abuse Elevation Control Mechanism', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; Exploitation for Privilege Escalation; Input Capture; Abuse Elevation Control Mechanism; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8789,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Dynamic Resolution', 'Exploitation of Remote Services', 'Command and Scripting Interpreter']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Dynamic Resolution; Exploitation of Remote Services; Command and Scripting Interpreter</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8801,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'Obtain Capabilities', 'File and Directory Discovery', 'User Execution']</t>
+          <t>File and Directory Permissions Modification; Obtain Capabilities; File and Directory Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8813,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>['Browser Session Hijacking', 'Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Exploit Public-Facing Application']</t>
+          <t>Browser Session Hijacking; Use Alternate Authentication Material; Exploitation for Client Execution; Modify Authentication Process; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8825,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Application Layer Protocol', 'Exploitation for Client Execution', 'User Execution', 'Stage Capabilities', 'Input Capture', 'Browser Session Hijacking', 'Drive-by Compromise', 'Phishing', 'Phishing for Information']</t>
+          <t>Exploit Public-Facing Application; Application Layer Protocol; Exploitation for Client Execution; User Execution; Stage Capabilities; Input Capture; Browser Session Hijacking; Drive-by Compromise; Phishing; Phishing for Information</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8837,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Client Execution', 'Valid Accounts', 'Exploitation for Privilege Escalation', 'User Execution', 'Pre-OS Boot', 'Exploit Public-Facing Application']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Client Execution; Valid Accounts; Exploitation for Privilege Escalation; User Execution; Pre-OS Boot; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8849,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Discovery', 'Data from Local System', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; File and Directory Discovery; Data from Local System; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8861,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'File and Directory Discovery', 'Exploitation for Defense Evasion', 'User Execution', 'Taint Shared Content', 'Remote Services', 'Network Denial of Service', 'Endpoint Denial of Service', 'Defacement', 'Exploitation for Credential Access', 'Hide Artifacts', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; File and Directory Discovery; Exploitation for Defense Evasion; User Execution; Taint Shared Content; Remote Services; Network Denial of Service; Endpoint Denial of Service; Defacement; Exploitation for Credential Access; Hide Artifacts; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8873,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Boot or Logon Autostart Execution', 'Exploitation for Privilege Escalation', 'Boot or Logon Initialization Scripts', 'Abuse Elevation Control Mechanism', 'Subvert Trust Controls', 'Pre-OS Boot', 'Rootkit', 'Hijack Execution Flow', 'User Execution', 'Peripheral Device Discovery', 'Exploitation of Remote Services', 'Event Triggered Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Boot or Logon Autostart Execution; Exploitation for Privilege Escalation; Boot or Logon Initialization Scripts; Abuse Elevation Control Mechanism; Subvert Trust Controls; Pre-OS Boot; Rootkit; Hijack Execution Flow; User Execution; Peripheral Device Discovery; Exploitation of Remote Services; Event Triggered Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8885,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8897,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>['Pre-OS Boot', 'User Execution', 'Modify System Image', 'Exploitation of Remote Services', 'Exploitation for Client Execution', 'Supply Chain Compromise']</t>
+          <t>Pre-OS Boot; User Execution; Modify System Image; Exploitation of Remote Services; Exploitation for Client Execution; Supply Chain Compromise</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8909,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Container Administration Command', 'Container and Resource Discovery', 'Exploitation for Privilege Escalation', 'Deploy Container', 'User Execution']</t>
+          <t>Abuse Elevation Control Mechanism; Container Administration Command; Container and Resource Discovery; Exploitation for Privilege Escalation; Deploy Container; User Execution</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8921,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Non-Application Layer Protocol', 'Network Denial of Service', 'Pre-OS Boot', 'Proxy', 'System Network Connections Discovery', 'User Execution', 'Remote System Discovery', 'System Network Configuration Discovery', 'Peripheral Device Discovery', 'Adversary-in-the-Middle', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Non-Application Layer Protocol; Network Denial of Service; Pre-OS Boot; Proxy; System Network Connections Discovery; User Execution; Remote System Discovery; System Network Configuration Discovery; Peripheral Device Discovery; Adversary-in-the-Middle; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8933,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Indicator Removal', 'Data Destruction', 'Exploitation for Client Execution', 'User Execution', 'Exploitation for Privilege Escalation', 'Disk Wipe', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Indicator Removal; Data Destruction; Exploitation for Client Execution; User Execution; Exploitation for Privilege Escalation; Disk Wipe; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8945,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>['File and Directory Permissions Modification', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Native API', 'System Binary Proxy Execution', 'User Execution', 'Hijack Execution Flow']</t>
+          <t>File and Directory Permissions Modification; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Native API; System Binary Proxy Execution; User Execution; Hijack Execution Flow</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8957,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'Phishing for Information', 'User Execution', 'Email Collection', 'Gather Victim Identity Information']</t>
+          <t>Deobfuscate/Decode Files or Information; Phishing for Information; User Execution; Email Collection; Gather Victim Identity Information</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8969,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'Modify Authentication Process', 'Use Alternate Authentication Material', 'User Execution', 'Account Access Removal']</t>
+          <t>Remote Service Session Hijacking; Modify Authentication Process; Use Alternate Authentication Material; User Execution; Account Access Removal</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8981,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>['Archive Collected Data', 'Endpoint Denial of Service', 'Exploitation for Client Execution', 'Phishing', 'Network Denial of Service', 'Obfuscated Files or Information', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Archive Collected Data; Endpoint Denial of Service; Exploitation for Client Execution; Phishing; Network Denial of Service; Obfuscated Files or Information; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8993,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>['System Binary Proxy Execution', 'Exploitation for Client Execution', 'User Execution', 'Command and Scripting Interpreter', 'Masquerading']</t>
+          <t>System Binary Proxy Execution; Exploitation for Client Execution; User Execution; Command and Scripting Interpreter; Masquerading</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9005,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Abuse Elevation Control Mechanism', 'Modify Authentication Process']</t>
+          <t>Exploitation for Privilege Escalation; Use Alternate Authentication Material; Abuse Elevation Control Mechanism; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9017,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'XSL Script Processing', 'Ingress Tool Transfer', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; XSL Script Processing; Ingress Tool Transfer; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9029,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9041,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>['Boot or Logon Autostart Execution', 'Masquerading', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Boot or Logon Autostart Execution; Masquerading; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9053,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9065,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Phishing', 'Event Triggered Execution', 'Stage Capabilities', 'Browser Session Hijacking', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Phishing; Event Triggered Execution; Stage Capabilities; Browser Session Hijacking; Web Service</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9077,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9089,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Native API', 'User Execution', 'Exploit Public-Facing Application', 'Server Software Component']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Native API; User Execution; Exploit Public-Facing Application; Server Software Component</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9101,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>['Obtain Capabilities', 'User Execution', 'Subvert Trust Controls']</t>
+          <t>Obtain Capabilities; User Execution; Subvert Trust Controls</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9113,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>['Data from Local System', 'File and Directory Discovery', 'File and Directory Permissions Modification', 'User Execution', 'Data Staged']</t>
+          <t>Data from Local System; File and Directory Discovery; File and Directory Permissions Modification; User Execution; Data Staged</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9125,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Stage Capabilities', 'Exploit Public-Facing Application', 'Drive-by Compromise', 'Server Software Component', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Stage Capabilities; Exploit Public-Facing Application; Drive-by Compromise; Server Software Component; User Execution</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9137,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Data Staged', 'Abuse Elevation Control Mechanism', 'User Execution', 'Exploitation for Privilege Escalation', 'Boot or Logon Initialization Scripts', 'Process Injection', 'Boot or Logon Autostart Execution', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Data Staged; Abuse Elevation Control Mechanism; User Execution; Exploitation for Privilege Escalation; Boot or Logon Initialization Scripts; Process Injection; Boot or Logon Autostart Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9149,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>['System Owner/User Discovery', 'Account Discovery', 'User Execution']</t>
+          <t>System Owner/User Discovery; Account Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9161,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Dynamic Resolution', 'Exploit Public-Facing Application', 'Data Obfuscation', 'User Execution']</t>
+          <t>Application Layer Protocol; Dynamic Resolution; Exploit Public-Facing Application; Data Obfuscation; User Execution</t>
         </is>
       </c>
     </row>
@@ -9177,7 +9173,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'File and Directory Discovery', 'Modify Authentication Process', 'User Execution']</t>
+          <t>Use Alternate Authentication Material; File and Directory Discovery; Modify Authentication Process; User Execution</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9185,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'Exploitation for Client Execution', 'User Execution', 'Obfuscated Files or Information']</t>
+          <t>Deobfuscate/Decode Files or Information; Exploitation for Client Execution; User Execution; Obfuscated Files or Information</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9197,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Process Injection', 'Event Triggered Execution', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Process Injection; Event Triggered Execution; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9209,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9221,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>['User Execution', 'Endpoint Denial of Service', 'Indicator Removal', 'Phishing', 'Exploitation for Client Execution', 'Ingress Tool Transfer', 'Network Denial of Service', 'Data Destruction', 'Exploitation of Remote Services', 'Impair Defenses', 'Account Access Removal', 'Exploit Public-Facing Application']</t>
+          <t>User Execution; Endpoint Denial of Service; Indicator Removal; Phishing; Exploitation for Client Execution; Ingress Tool Transfer; Network Denial of Service; Data Destruction; Exploitation of Remote Services; Impair Defenses; Account Access Removal; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9233,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>['System Owner/User Discovery', 'Account Discovery', 'User Execution']</t>
+          <t>System Owner/User Discovery; Account Discovery; User Execution</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9245,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9257,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Server Software Component', 'Exploitation for Client Execution', 'Modify Authentication Process']</t>
+          <t>Obfuscated Files or Information; Exploit Public-Facing Application; Use Alternate Authentication Material; Server Software Component; Exploitation for Client Execution; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9269,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Network Denial of Service', 'User Execution']</t>
+          <t>Endpoint Denial of Service; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9281,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>['Peripheral Device Discovery', 'System Information Discovery', 'Modify Authentication Process', 'User Execution', 'Create Account', 'Pre-OS Boot']</t>
+          <t>Peripheral Device Discovery; System Information Discovery; Modify Authentication Process; User Execution; Create Account; Pre-OS Boot</t>
         </is>
       </c>
     </row>
@@ -9297,7 +9293,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9305,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Endpoint Denial of Service', 'User Execution', 'Archive Collected Data']</t>
+          <t>Exploitation for Client Execution; Endpoint Denial of Service; User Execution; Archive Collected Data</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9317,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>['Build Image on Host', 'Exploitation for Client Execution', 'Obfuscated Files or Information', 'User Execution']</t>
+          <t>Build Image on Host; Exploitation for Client Execution; Obfuscated Files or Information; User Execution</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9329,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Use Alternate Authentication Material', 'Stage Capabilities', 'Exploit Public-Facing Application', 'Modify Authentication Process', 'Server Software Component', 'Browser Session Hijacking']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Use Alternate Authentication Material; Stage Capabilities; Exploit Public-Facing Application; Modify Authentication Process; Server Software Component; Browser Session Hijacking</t>
         </is>
       </c>
     </row>
@@ -9345,7 +9341,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution']</t>
+          <t>User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9353,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Exploit Public-Facing Application', 'Drive-by Compromise']</t>
+          <t>Exploitation for Client Execution; User Execution; Exploit Public-Facing Application; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9365,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'File and Directory Permissions Modification', 'Use Alternate Authentication Material', 'Brute Force', 'Modify Authentication Process', 'Obtain Capabilities', 'Remote Services', 'Server Software Component', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Remote Service Session Hijacking; File and Directory Permissions Modification; Use Alternate Authentication Material; Brute Force; Modify Authentication Process; Obtain Capabilities; Remote Services; Server Software Component; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9377,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploit Public-Facing Application', 'Exploitation of Remote Services', 'User Execution', 'Compromise Infrastructure']</t>
+          <t>Exploitation for Client Execution; Exploit Public-Facing Application; Exploitation of Remote Services; User Execution; Compromise Infrastructure</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9389,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9401,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution', 'Exploitation of Remote Services', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; User Execution; Exploitation of Remote Services; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9413,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>['Resource Hijacking', 'Virtualization/Sandbox Evasion', 'Endpoint Denial of Service', 'Network Denial of Service', 'User Execution']</t>
+          <t>Resource Hijacking; Virtualization/Sandbox Evasion; Endpoint Denial of Service; Network Denial of Service; User Execution</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9425,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Exploitation for Client Execution']</t>
+          <t>Obfuscated Files or Information; Use Alternate Authentication Material; Modify Authentication Process; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9437,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9449,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Native API', 'XSL Script Processing', 'Server Software Component', 'Data Staged', 'Exploit Public-Facing Application', 'Data from Local System', 'Browser Session Hijacking', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Native API; XSL Script Processing; Server Software Component; Data Staged; Exploit Public-Facing Application; Data from Local System; Browser Session Hijacking; User Execution</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9461,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Screen Capture', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Screen Capture; User Execution</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9473,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9485,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Data Manipulation', 'Modify Authentication Process', 'User Execution', 'Exploitation for Client Execution', 'Forge Web Credentials']</t>
+          <t>Use Alternate Authentication Material; Data Manipulation; Modify Authentication Process; User Execution; Exploitation for Client Execution; Forge Web Credentials</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9497,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Data Destruction', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Indicator Removal; Data Destruction; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9509,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>['Protocol Tunneling', 'Proxy', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Protocol Tunneling; Proxy; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -9525,7 +9521,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Stage Capabilities', 'Command and Scripting Interpreter', 'Browser Session Hijacking', 'Web Service']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Stage Capabilities; Command and Scripting Interpreter; Browser Session Hijacking; Web Service</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9533,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>['Hijack Execution Flow', 'Masquerading', 'Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Hijack Execution Flow; Masquerading; Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9545,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Modify Authentication Process', 'Hijack Execution Flow']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Modify Authentication Process; Hijack Execution Flow</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9557,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9569,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Subvert Trust Controls; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9581,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>['Non-Standard Port', 'Endpoint Denial of Service', 'Exploitation for Client Execution', 'Network Denial of Service', 'Resource Hijacking', 'Non-Application Layer Protocol', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Non-Standard Port; Endpoint Denial of Service; Exploitation for Client Execution; Network Denial of Service; Resource Hijacking; Non-Application Layer Protocol; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9593,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>['Subvert Trust Controls', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Subvert Trust Controls; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9605,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Exploit Public-Facing Application', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Exploit Public-Facing Application; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9617,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9629,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>['Browser Session Hijacking', 'Valid Accounts', 'Exploitation for Client Execution', 'Modify Registry', 'Server Software Component', 'Command and Scripting Interpreter', 'Boot or Logon Autostart Execution', 'Browser Bookmark Discovery', 'Exploit Public-Facing Application', 'User Execution']</t>
+          <t>Browser Session Hijacking; Valid Accounts; Exploitation for Client Execution; Modify Registry; Server Software Component; Command and Scripting Interpreter; Boot or Logon Autostart Execution; Browser Bookmark Discovery; Exploit Public-Facing Application; User Execution</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9641,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>['Access Token Manipulation', 'Exploitation for Privilege Escalation', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'User Execution', 'Modify Authentication Process', 'Exploit Public-Facing Application']</t>
+          <t>Access Token Manipulation; Exploitation for Privilege Escalation; Exploitation for Client Execution; Use Alternate Authentication Material; User Execution; Modify Authentication Process; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9653,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>['Dynamic Resolution', 'User Execution']</t>
+          <t>Dynamic Resolution; User Execution</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9665,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Boot or Logon Autostart Execution', 'Exploitation for Privilege Escalation', 'Boot or Logon Initialization Scripts', 'Abuse Elevation Control Mechanism', 'Subvert Trust Controls', 'Pre-OS Boot', 'Rootkit', 'Hijack Execution Flow', 'User Execution', 'Peripheral Device Discovery', 'Exploitation of Remote Services', 'Event Triggered Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Boot or Logon Autostart Execution; Exploitation for Privilege Escalation; Boot or Logon Initialization Scripts; Abuse Elevation Control Mechanism; Subvert Trust Controls; Pre-OS Boot; Rootkit; Hijack Execution Flow; User Execution; Peripheral Device Discovery; Exploitation of Remote Services; Event Triggered Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9677,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Exploitation for Client Execution', 'Modify Authentication Process', 'Server Software Component']</t>
+          <t>Exploit Public-Facing Application; Use Alternate Authentication Material; Obtain Capabilities; Exploitation for Client Execution; Modify Authentication Process; Server Software Component</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9689,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9701,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9713,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>['Pre-OS Boot', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Pre-OS Boot; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9725,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; User Execution</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9737,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'Obfuscated Files or Information', 'Modify Authentication Process', 'Use Alternate Authentication Material', 'Subvert Trust Controls', 'Steal or Forge Kerberos Tickets', 'User Execution', 'Account Access Removal']</t>
+          <t>Remote Service Session Hijacking; Obfuscated Files or Information; Modify Authentication Process; Use Alternate Authentication Material; Subvert Trust Controls; Steal or Forge Kerberos Tickets; User Execution; Account Access Removal</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9749,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>['Email Collection', 'Exploitation for Client Execution', 'Office Application Startup', 'User Execution']</t>
+          <t>Email Collection; Exploitation for Client Execution; Office Application Startup; User Execution</t>
         </is>
       </c>
     </row>
@@ -9765,7 +9761,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Exploitation of Remote Services', 'Modify Authentication Process', 'Masquerading']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Exploitation of Remote Services; Modify Authentication Process; Masquerading</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9773,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9785,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9797,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Indirect Command Execution', 'Modify Authentication Process', 'Exploit Public-Facing Application', 'Exploitation of Remote Services']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Use Alternate Authentication Material; Indirect Command Execution; Modify Authentication Process; Exploit Public-Facing Application; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9809,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9821,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9833,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Stage Capabilities', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Exploit Public-Facing Application', 'Server Software Component', 'User Execution', 'Drive-by Compromise']</t>
+          <t>Exploitation for Privilege Escalation; Stage Capabilities; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Exploit Public-Facing Application; Server Software Component; User Execution; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9845,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Template Injection', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Template Injection; User Execution</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9857,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9869,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9881,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>['Abuse Elevation Control Mechanism', 'Use Alternate Authentication Material', 'Exploitation for Privilege Escalation', 'User Execution', 'Domain Policy Modification']</t>
+          <t>Abuse Elevation Control Mechanism; Use Alternate Authentication Material; Exploitation for Privilege Escalation; User Execution; Domain Policy Modification</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9893,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>['OS Credential Dumping', 'Create Account', 'Access Token Manipulation', 'Account Discovery', 'User Execution', 'Unsecured Credentials']</t>
+          <t>OS Credential Dumping; Create Account; Access Token Manipulation; Account Discovery; User Execution; Unsecured Credentials</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9905,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Process Injection', 'User Execution', 'Exploitation of Remote Services', 'Modify Registry', 'Indirect Command Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Process Injection; User Execution; Exploitation of Remote Services; Modify Registry; Indirect Command Execution</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9917,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'User Execution']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; User Execution</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9929,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Obtain Capabilities', 'User Execution', 'Indicator Removal', 'Exploitation for Client Execution']</t>
+          <t>Endpoint Denial of Service; Obtain Capabilities; User Execution; Indicator Removal; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -9945,7 +9941,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'Multi-Factor Authentication Interception', 'Pre-OS Boot', 'Modify System Image', 'User Execution', 'Indirect Command Execution', 'Browser Session Hijacking', 'Weaken Encryption', 'Exploit Public-Facing Application']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; Multi-Factor Authentication Interception; Pre-OS Boot; Modify System Image; User Execution; Indirect Command Execution; Browser Session Hijacking; Weaken Encryption; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9953,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -9969,7 +9965,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>['Exploitation for Privilege Escalation', 'Abuse Elevation Control Mechanism', 'Domain Policy Modification', 'User Execution', 'Application Layer Protocol', 'Access Token Manipulation', 'Steal Application Access Token']</t>
+          <t>Exploitation for Privilege Escalation; Abuse Elevation Control Mechanism; Domain Policy Modification; User Execution; Application Layer Protocol; Access Token Manipulation; Steal Application Access Token</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9977,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution']</t>
+          <t>User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9989,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>['Create Account', 'Valid Accounts', 'Exploitation for Privilege Escalation', 'Account Manipulation', 'Exploitation for Client Execution', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Create Account; Valid Accounts; Exploitation for Privilege Escalation; Account Manipulation; Exploitation for Client Execution; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -10005,7 +10001,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obfuscated Files or Information', 'Use Alternate Authentication Material', 'Modify Authentication Process']</t>
+          <t>Exploitation for Client Execution; Obfuscated Files or Information; Use Alternate Authentication Material; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10013,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10025,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>['Phishing for Information', 'User Execution']</t>
+          <t>Phishing for Information; User Execution</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10037,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Obfuscated Files or Information', 'Modify Authentication Process', 'Virtualization/Sandbox Evasion']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Obfuscated Files or Information; Modify Authentication Process; Virtualization/Sandbox Evasion</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10049,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process', 'Event Triggered Execution', 'Stage Capabilities', 'Server Software Component', 'System Binary Proxy Execution']</t>
+          <t>Exploitation for Client Execution; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process; Event Triggered Execution; Stage Capabilities; Server Software Component; System Binary Proxy Execution</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10061,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>['User Execution', 'Exploitation for Client Execution', 'Server Software Component', 'Exploit Public-Facing Application', 'Supply Chain Compromise', 'Browser Session Hijacking', 'Browser Bookmark Discovery', 'Event Triggered Execution', 'Exploitation of Remote Services', 'Stage Capabilities', 'Web Service', 'Drive-by Compromise']</t>
+          <t>User Execution; Exploitation for Client Execution; Server Software Component; Exploit Public-Facing Application; Supply Chain Compromise; Browser Session Hijacking; Browser Bookmark Discovery; Event Triggered Execution; Exploitation of Remote Services; Stage Capabilities; Web Service; Drive-by Compromise</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10073,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>['Remote Service Session Hijacking', 'Exploitation for Client Execution', 'User Execution', 'System Network Connections Discovery', 'Exploitation of Remote Services']</t>
+          <t>Remote Service Session Hijacking; Exploitation for Client Execution; User Execution; System Network Connections Discovery; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10085,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'Server Software Component', 'Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploit Public-Facing Application; Server Software Component; Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10097,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>['Exploit Public-Facing Application', 'User Execution', 'Exploitation for Client Execution']</t>
+          <t>Exploit Public-Facing Application; User Execution; Exploitation for Client Execution</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10109,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>['Use Alternate Authentication Material', 'Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Hijack Execution Flow', 'Modify Authentication Process', 'Exploitation for Privilege Escalation', 'Exploitation of Remote Services']</t>
+          <t>Use Alternate Authentication Material; Exploitation for Client Execution; Abuse Elevation Control Mechanism; Hijack Execution Flow; Modify Authentication Process; Exploitation for Privilege Escalation; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -10125,7 +10121,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>['Exploitation of Remote Services', 'Exploitation for Client Execution', 'OS Credential Dumping', 'Obtain Capabilities', 'User Execution', 'Exploit Public-Facing Application', 'Brute Force', 'Exploitation for Privilege Escalation']</t>
+          <t>Exploitation of Remote Services; Exploitation for Client Execution; OS Credential Dumping; Obtain Capabilities; User Execution; Exploit Public-Facing Application; Brute Force; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10133,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploit Public-Facing Application', 'Use Alternate Authentication Material', 'Obtain Capabilities', 'Modify Authentication Process']</t>
+          <t>Command and Scripting Interpreter; Exploit Public-Facing Application; Use Alternate Authentication Material; Obtain Capabilities; Modify Authentication Process</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10145,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>['Obfuscated Files or Information', 'Exploitation for Client Execution', 'User Execution', 'Template Injection']</t>
+          <t>Obfuscated Files or Information; Exploitation for Client Execution; User Execution; Template Injection</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10157,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Exploitation for Client Execution', 'Multi-Factor Authentication Interception', 'File and Directory Permissions Modification', 'Command and Scripting Interpreter', 'User Execution', 'Exploitation of Remote Services', 'Modify System Image', 'Data Destruction', 'Boot or Logon Autostart Execution', 'Inhibit System Recovery', 'Input Capture', 'Exploit Public-Facing Application']</t>
+          <t>Indicator Removal; Exploitation for Client Execution; Multi-Factor Authentication Interception; File and Directory Permissions Modification; Command and Scripting Interpreter; User Execution; Exploitation of Remote Services; Modify System Image; Data Destruction; Boot or Logon Autostart Execution; Inhibit System Recovery; Input Capture; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10169,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'User Execution']</t>
+          <t>Exploitation for Client Execution; User Execution</t>
         </is>
       </c>
     </row>
@@ -10185,7 +10181,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>['Application Layer Protocol', 'Exploit Public-Facing Application', 'Exploitation for Client Execution', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Application Layer Protocol; Exploit Public-Facing Application; Exploitation for Client Execution; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10193,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'Data Encrypted for Impact', 'Obfuscated Files or Information', 'Archive Collected Data', 'User Execution', 'Encrypted Channel']</t>
+          <t>Deobfuscate/Decode Files or Information; Data Encrypted for Impact; Obfuscated Files or Information; Archive Collected Data; User Execution; Encrypted Channel</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10205,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>['Command and Scripting Interpreter', 'Exploitation for Client Execution', 'User Execution', 'Exploitation for Privilege Escalation']</t>
+          <t>Command and Scripting Interpreter; Exploitation for Client Execution; User Execution; Exploitation for Privilege Escalation</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10217,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>['Deobfuscate/Decode Files or Information', 'User Execution', 'Exploitation of Remote Services']</t>
+          <t>Deobfuscate/Decode Files or Information; User Execution; Exploitation of Remote Services</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10229,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Obtain Capabilities', 'User Execution', 'Email Collection', 'Gather Victim Identity Information', 'Phishing for Information']</t>
+          <t>Exploitation for Client Execution; Obtain Capabilities; User Execution; Email Collection; Gather Victim Identity Information; Phishing for Information</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10241,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>['Ingress Tool Transfer', 'System Binary Proxy Execution', 'User Execution', 'Command and Scripting Interpreter', 'Lateral Tool Transfer']</t>
+          <t>Ingress Tool Transfer; System Binary Proxy Execution; User Execution; Command and Scripting Interpreter; Lateral Tool Transfer</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10253,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>['Replication Through Removable Media', 'Peripheral Device Discovery', 'Exfiltration Over Physical Medium', 'User Execution']</t>
+          <t>Replication Through Removable Media; Peripheral Device Discovery; Exfiltration Over Physical Medium; User Execution</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10265,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>['Scheduled Task/Job', 'Create Account', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'Valid Accounts', 'User Execution', 'Exploitation for Client Execution', 'Hijack Execution Flow', 'Access Token Manipulation']</t>
+          <t>Scheduled Task/Job; Create Account; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; Valid Accounts; User Execution; Exploitation for Client Execution; Hijack Execution Flow; Access Token Manipulation</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10277,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10289,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Exploitation of Remote Services', 'Obtain Capabilities', 'User Execution']</t>
+          <t>Exploitation for Client Execution; Exploitation of Remote Services; Obtain Capabilities; User Execution</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10301,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>['Indicator Removal', 'Modify System Image', 'Exploitation for Client Execution', 'Ingress Tool Transfer', 'Data Destruction', 'Pre-OS Boot', 'Disk Wipe', 'User Execution', 'Exploitation for Privilege Escalation', 'Exploit Public-Facing Application']</t>
+          <t>Indicator Removal; Modify System Image; Exploitation for Client Execution; Ingress Tool Transfer; Data Destruction; Pre-OS Boot; Disk Wipe; User Execution; Exploitation for Privilege Escalation; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10313,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>['Endpoint Denial of Service', 'Exploitation for Client Execution', 'Resource Hijacking', 'Network Denial of Service', 'Adversary-in-the-Middle', 'System Network Configuration Discovery', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Endpoint Denial of Service; Exploitation for Client Execution; Resource Hijacking; Network Denial of Service; Adversary-in-the-Middle; System Network Configuration Discovery; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10325,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>['User Execution']</t>
+          <t>User Execution</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10337,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Remote Services', 'User Execution', 'Exploitation of Remote Services', 'System Services']</t>
+          <t>Exploitation for Client Execution; Remote Services; User Execution; Exploitation of Remote Services; System Services</t>
         </is>
       </c>
     </row>
@@ -10353,7 +10349,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Abuse Elevation Control Mechanism', 'Exploitation for Privilege Escalation', 'User Execution', 'Exploit Public-Facing Application']</t>
+          <t>Exploitation for Client Execution; Abuse Elevation Control Mechanism; Exploitation for Privilege Escalation; User Execution; Exploit Public-Facing Application</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10361,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>['Exploitation for Client Execution', 'Event Triggered Execution', 'Non-Application Layer Protocol', 'Exploit Public-Facing Application', 'Application Layer Protocol', 'User Execution', 'Exploitation of Remote Services', 'Process Injection', 'Network Sniffing']</t>
+          <t>Exploitation for Client Execution; Event Triggered Execution; Non-Application Layer Protocol; Exploit Public-Facing Application; Application Layer Protocol; User Execution; Exploitation of Remote Services; Process Injection; Network Sniffing</t>
         </is>
       </c>
     </row>
